--- a/dp_cc_reg.xlsx
+++ b/dp_cc_reg.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_clone\small_tools_develop\binary_excel_parse_git\binary_excel_parse\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="lte_v3_dp_cc" sheetId="1" r:id="rId1"/>
     <sheet name="test_sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="216">
   <si>
     <t>RegName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +320,550 @@
   <si>
     <t>offset</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>0x7</t>
+  </si>
+  <si>
+    <t>0x3</t>
+  </si>
+  <si>
+    <t>0x3f</t>
+  </si>
+  <si>
+    <t>0x7fff</t>
+  </si>
+  <si>
+    <t>0x1f</t>
+  </si>
+  <si>
+    <t>0x2</t>
+  </si>
+  <si>
+    <t>0x5</t>
+  </si>
+  <si>
+    <t>0xf</t>
+  </si>
+  <si>
+    <t>0x7f</t>
+  </si>
+  <si>
+    <t>0x3f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xd4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xd8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x11c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x12c</t>
+  </si>
+  <si>
+    <t>0x130</t>
+  </si>
+  <si>
+    <t>0x134</t>
+  </si>
+  <si>
+    <t>0x7fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xd</t>
+  </si>
+  <si>
+    <t>0xd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfffffed6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfffffeda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfffffede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfffffee2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfffffee6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfffffeea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfffffeee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfffffef2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfffffef6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfffffefa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xfffffefe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff0e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff1e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff2a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xffffff2e</t>
+  </si>
+  <si>
+    <t>0xffffff32</t>
+  </si>
+  <si>
+    <t>0xffffff36</t>
+  </si>
+  <si>
+    <t>0x7f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xed7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xedb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xedf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xee3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xee7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xeeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xeef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xef3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xef7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xefb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xeff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf1b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf2b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf2f</t>
+  </si>
+  <si>
+    <t>0xf33</t>
+  </si>
+  <si>
+    <t>0xf37</t>
   </si>
 </sst>
 </file>
@@ -383,17 +922,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,7 +1260,7 @@
     <col min="13" max="13" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -762,21 +1301,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>32</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" t="s">
         <v>15</v>
       </c>
@@ -792,14 +1331,89 @@
       <c r="M2" t="s">
         <v>18</v>
       </c>
+      <c r="Q2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" t="s">
         <v>19</v>
       </c>
@@ -815,14 +1429,89 @@
       <c r="M3" t="s">
         <v>18</v>
       </c>
+      <c r="Q3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -838,14 +1527,89 @@
       <c r="M4" t="s">
         <v>18</v>
       </c>
+      <c r="Q4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -861,14 +1625,89 @@
       <c r="M5" t="s">
         <v>18</v>
       </c>
+      <c r="Q5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -884,14 +1723,89 @@
       <c r="M6" t="s">
         <v>18</v>
       </c>
+      <c r="Q6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" t="s">
         <v>27</v>
       </c>
@@ -907,14 +1821,89 @@
       <c r="M7" t="s">
         <v>18</v>
       </c>
+      <c r="Q7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7" t="s">
+        <v>94</v>
+      </c>
+      <c r="V7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" t="s">
         <v>28</v>
       </c>
@@ -930,14 +1919,89 @@
       <c r="M8" t="s">
         <v>18</v>
       </c>
+      <c r="Q8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" t="s">
+        <v>91</v>
+      </c>
+      <c r="V8" t="s">
+        <v>91</v>
+      </c>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" t="s">
         <v>29</v>
       </c>
@@ -953,14 +2017,89 @@
       <c r="M9" t="s">
         <v>18</v>
       </c>
+      <c r="Q9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" t="s">
+        <v>91</v>
+      </c>
+      <c r="V9" t="s">
+        <v>91</v>
+      </c>
+      <c r="W9" t="s">
+        <v>91</v>
+      </c>
+      <c r="X9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" t="s">
         <v>30</v>
       </c>
@@ -976,14 +2115,89 @@
       <c r="M10" t="s">
         <v>18</v>
       </c>
+      <c r="Q10" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" t="s">
         <v>31</v>
       </c>
@@ -999,14 +2213,89 @@
       <c r="M11" t="s">
         <v>18</v>
       </c>
+      <c r="Q11" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" t="s">
+        <v>88</v>
+      </c>
+      <c r="U11" t="s">
+        <v>92</v>
+      </c>
+      <c r="V11" t="s">
+        <v>92</v>
+      </c>
+      <c r="W11" t="s">
+        <v>92</v>
+      </c>
+      <c r="X11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" t="s">
         <v>36</v>
       </c>
@@ -1022,14 +2311,89 @@
       <c r="M12" t="s">
         <v>18</v>
       </c>
+      <c r="Q12" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" t="s">
+        <v>93</v>
+      </c>
+      <c r="T12" t="s">
+        <v>89</v>
+      </c>
+      <c r="U12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" t="s">
+        <v>93</v>
+      </c>
+      <c r="W12" t="s">
+        <v>93</v>
+      </c>
+      <c r="X12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" t="s">
         <v>37</v>
       </c>
@@ -1045,14 +2409,89 @@
       <c r="M13" t="s">
         <v>18</v>
       </c>
+      <c r="Q13" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" t="s">
+        <v>87</v>
+      </c>
+      <c r="U13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13" t="s">
+        <v>91</v>
+      </c>
+      <c r="W13" t="s">
+        <v>91</v>
+      </c>
+      <c r="X13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" t="s">
         <v>38</v>
       </c>
@@ -1068,22 +2507,97 @@
       <c r="M14" t="s">
         <v>18</v>
       </c>
+      <c r="Q14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" t="s">
+        <v>96</v>
+      </c>
+      <c r="T14" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" t="s">
+        <v>97</v>
+      </c>
+      <c r="V14" t="s">
+        <v>98</v>
+      </c>
+      <c r="W14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>32</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" t="s">
         <v>15</v>
       </c>
@@ -1099,14 +2613,89 @@
       <c r="M15" t="s">
         <v>18</v>
       </c>
+      <c r="Q15" t="s">
+        <v>112</v>
+      </c>
+      <c r="R15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S15" t="s">
+        <v>91</v>
+      </c>
+      <c r="T15" t="s">
+        <v>91</v>
+      </c>
+      <c r="U15" t="s">
+        <v>91</v>
+      </c>
+      <c r="V15" t="s">
+        <v>91</v>
+      </c>
+      <c r="W15" t="s">
+        <v>91</v>
+      </c>
+      <c r="X15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" t="s">
         <v>43</v>
       </c>
@@ -1122,14 +2711,89 @@
       <c r="M16" t="s">
         <v>18</v>
       </c>
+      <c r="Q16" t="s">
+        <v>126</v>
+      </c>
+      <c r="R16" t="s">
+        <v>132</v>
+      </c>
+      <c r="S16" t="s">
+        <v>132</v>
+      </c>
+      <c r="T16" t="s">
+        <v>132</v>
+      </c>
+      <c r="U16" t="s">
+        <v>132</v>
+      </c>
+      <c r="V16" t="s">
+        <v>132</v>
+      </c>
+      <c r="W16" t="s">
+        <v>132</v>
+      </c>
+      <c r="X16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" t="s">
         <v>30</v>
       </c>
@@ -1145,14 +2809,89 @@
       <c r="M17" t="s">
         <v>18</v>
       </c>
+      <c r="Q17" t="s">
+        <v>112</v>
+      </c>
+      <c r="R17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" t="s">
+        <v>91</v>
+      </c>
+      <c r="T17" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" t="s">
+        <v>91</v>
+      </c>
+      <c r="W17" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" t="s">
         <v>46</v>
       </c>
@@ -1168,14 +2907,89 @@
       <c r="M18" t="s">
         <v>18</v>
       </c>
+      <c r="Q18" t="s">
+        <v>127</v>
+      </c>
+      <c r="R18" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" t="s">
+        <v>133</v>
+      </c>
+      <c r="T18" t="s">
+        <v>133</v>
+      </c>
+      <c r="U18" t="s">
+        <v>133</v>
+      </c>
+      <c r="V18" t="s">
+        <v>133</v>
+      </c>
+      <c r="W18" t="s">
+        <v>133</v>
+      </c>
+      <c r="X18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" t="s">
         <v>47</v>
       </c>
@@ -1191,14 +3005,89 @@
       <c r="M19" t="s">
         <v>18</v>
       </c>
+      <c r="Q19" t="s">
+        <v>128</v>
+      </c>
+      <c r="R19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T19" t="s">
+        <v>134</v>
+      </c>
+      <c r="U19" t="s">
+        <v>134</v>
+      </c>
+      <c r="V19" t="s">
+        <v>134</v>
+      </c>
+      <c r="W19" t="s">
+        <v>134</v>
+      </c>
+      <c r="X19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" t="s">
         <v>48</v>
       </c>
@@ -1214,14 +3103,89 @@
       <c r="M20" t="s">
         <v>18</v>
       </c>
+      <c r="Q20" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" t="s">
+        <v>135</v>
+      </c>
+      <c r="S20" t="s">
+        <v>135</v>
+      </c>
+      <c r="T20" t="s">
+        <v>137</v>
+      </c>
+      <c r="U20" t="s">
+        <v>137</v>
+      </c>
+      <c r="V20" t="s">
+        <v>137</v>
+      </c>
+      <c r="W20" t="s">
+        <v>137</v>
+      </c>
+      <c r="X20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" t="s">
         <v>49</v>
       </c>
@@ -1237,13 +3201,88 @@
       <c r="M21" t="s">
         <v>18</v>
       </c>
+      <c r="Q21" t="s">
+        <v>131</v>
+      </c>
+      <c r="R21" t="s">
+        <v>136</v>
+      </c>
+      <c r="S21" t="s">
+        <v>135</v>
+      </c>
+      <c r="T21" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" t="s">
+        <v>138</v>
+      </c>
+      <c r="V21" t="s">
+        <v>136</v>
+      </c>
+      <c r="W21" t="s">
+        <v>135</v>
+      </c>
+      <c r="X21" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1271,27 +3310,102 @@
       <c r="M23" t="s">
         <v>18</v>
       </c>
+      <c r="Q23" t="s">
+        <v>152</v>
+      </c>
+      <c r="R23" t="s">
+        <v>153</v>
+      </c>
+      <c r="S23" t="s">
+        <v>154</v>
+      </c>
+      <c r="T23" t="s">
+        <v>155</v>
+      </c>
+      <c r="U23" t="s">
+        <v>156</v>
+      </c>
+      <c r="V23" t="s">
+        <v>157</v>
+      </c>
+      <c r="W23" t="s">
+        <v>158</v>
+      </c>
+      <c r="X23" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>32</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" t="s">
         <v>15</v>
       </c>
@@ -1307,14 +3421,89 @@
       <c r="M25" t="s">
         <v>18</v>
       </c>
+      <c r="Q25" t="s">
+        <v>112</v>
+      </c>
+      <c r="R25" t="s">
+        <v>180</v>
+      </c>
+      <c r="S25" t="s">
+        <v>185</v>
+      </c>
+      <c r="T25" t="s">
+        <v>180</v>
+      </c>
+      <c r="U25" t="s">
+        <v>185</v>
+      </c>
+      <c r="V25" t="s">
+        <v>140</v>
+      </c>
+      <c r="W25" t="s">
+        <v>180</v>
+      </c>
+      <c r="X25" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" t="s">
         <v>62</v>
       </c>
@@ -1330,14 +3519,89 @@
       <c r="M26" t="s">
         <v>18</v>
       </c>
+      <c r="Q26" t="s">
+        <v>177</v>
+      </c>
+      <c r="R26" t="s">
+        <v>181</v>
+      </c>
+      <c r="S26" t="s">
+        <v>186</v>
+      </c>
+      <c r="T26" t="s">
+        <v>181</v>
+      </c>
+      <c r="U26" t="s">
+        <v>186</v>
+      </c>
+      <c r="V26" t="s">
+        <v>192</v>
+      </c>
+      <c r="W26" t="s">
+        <v>181</v>
+      </c>
+      <c r="X26" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" t="s">
         <v>64</v>
       </c>
@@ -1353,14 +3617,89 @@
       <c r="M27" t="s">
         <v>18</v>
       </c>
+      <c r="Q27" t="s">
+        <v>112</v>
+      </c>
+      <c r="R27" t="s">
+        <v>180</v>
+      </c>
+      <c r="S27" t="s">
+        <v>185</v>
+      </c>
+      <c r="T27" t="s">
+        <v>180</v>
+      </c>
+      <c r="U27" t="s">
+        <v>185</v>
+      </c>
+      <c r="V27" t="s">
+        <v>140</v>
+      </c>
+      <c r="W27" t="s">
+        <v>180</v>
+      </c>
+      <c r="X27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" t="s">
         <v>65</v>
       </c>
@@ -1376,14 +3715,89 @@
       <c r="M28" t="s">
         <v>18</v>
       </c>
+      <c r="Q28" t="s">
+        <v>113</v>
+      </c>
+      <c r="R28" t="s">
+        <v>182</v>
+      </c>
+      <c r="S28" t="s">
+        <v>187</v>
+      </c>
+      <c r="T28" t="s">
+        <v>182</v>
+      </c>
+      <c r="U28" t="s">
+        <v>187</v>
+      </c>
+      <c r="V28" t="s">
+        <v>193</v>
+      </c>
+      <c r="W28" t="s">
+        <v>182</v>
+      </c>
+      <c r="X28" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
       <c r="G29" t="s">
         <v>67</v>
       </c>
@@ -1399,14 +3813,89 @@
       <c r="M29" t="s">
         <v>18</v>
       </c>
+      <c r="Q29" t="s">
+        <v>178</v>
+      </c>
+      <c r="R29" t="s">
+        <v>183</v>
+      </c>
+      <c r="S29" t="s">
+        <v>188</v>
+      </c>
+      <c r="T29" t="s">
+        <v>183</v>
+      </c>
+      <c r="U29" t="s">
+        <v>188</v>
+      </c>
+      <c r="V29" t="s">
+        <v>144</v>
+      </c>
+      <c r="W29" t="s">
+        <v>183</v>
+      </c>
+      <c r="X29" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
       <c r="G30" t="s">
         <v>69</v>
       </c>
@@ -1422,14 +3911,89 @@
       <c r="M30" t="s">
         <v>18</v>
       </c>
+      <c r="Q30" t="s">
+        <v>178</v>
+      </c>
+      <c r="R30" t="s">
+        <v>183</v>
+      </c>
+      <c r="S30" t="s">
+        <v>188</v>
+      </c>
+      <c r="T30" t="s">
+        <v>183</v>
+      </c>
+      <c r="U30" t="s">
+        <v>188</v>
+      </c>
+      <c r="V30" t="s">
+        <v>144</v>
+      </c>
+      <c r="W30" t="s">
+        <v>183</v>
+      </c>
+      <c r="X30" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
       <c r="G31" t="s">
         <v>70</v>
       </c>
@@ -1444,18 +4008,85 @@
       </c>
       <c r="M31" t="s">
         <v>18</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>179</v>
+      </c>
+      <c r="R31" t="s">
+        <v>184</v>
+      </c>
+      <c r="S31" t="s">
+        <v>189</v>
+      </c>
+      <c r="T31" t="s">
+        <v>190</v>
+      </c>
+      <c r="U31" t="s">
+        <v>191</v>
+      </c>
+      <c r="V31" t="s">
+        <v>194</v>
+      </c>
+      <c r="W31" t="s">
+        <v>195</v>
+      </c>
+      <c r="X31" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="E25:E31"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="E2:E14"/>
     <mergeCell ref="F2:F14"/>
@@ -1468,6 +4099,14 @@
     <mergeCell ref="D15:D21"/>
     <mergeCell ref="E15:E21"/>
     <mergeCell ref="F15:F21"/>
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="E25:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dp_cc_reg.xlsx
+++ b/dp_cc_reg.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_clone\small_tools_develop\binary_excel_parse_git\binary_excel_parse\"/>
@@ -15,7 +15,7 @@
     <sheet name="lte_v3_dp_cc" sheetId="1" r:id="rId1"/>
     <sheet name="test_sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -376,12 +376,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -703,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31:AT31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -719,9 +722,10 @@
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="22.875" customWidth="1"/>
+    <col min="16" max="16" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -762,21 +766,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>32</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" t="s">
         <v>15</v>
       </c>
@@ -793,13 +797,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" t="s">
         <v>19</v>
       </c>
@@ -816,13 +820,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -839,13 +843,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -862,13 +866,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -885,13 +889,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" t="s">
         <v>27</v>
       </c>
@@ -908,13 +912,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" t="s">
         <v>28</v>
       </c>
@@ -931,13 +935,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" t="s">
         <v>29</v>
       </c>
@@ -954,13 +958,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" t="s">
         <v>30</v>
       </c>
@@ -977,13 +981,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" t="s">
         <v>31</v>
       </c>
@@ -1000,13 +1004,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" t="s">
         <v>36</v>
       </c>
@@ -1023,13 +1027,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" t="s">
         <v>37</v>
       </c>
@@ -1046,13 +1050,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" t="s">
         <v>38</v>
       </c>
@@ -1069,21 +1073,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>32</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="G15" t="s">
         <v>15</v>
       </c>
@@ -1100,13 +1104,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" t="s">
         <v>43</v>
       </c>
@@ -1122,14 +1126,15 @@
       <c r="M16" t="s">
         <v>18</v>
       </c>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" t="s">
         <v>30</v>
       </c>
@@ -1147,12 +1152,12 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" t="s">
         <v>46</v>
       </c>
@@ -1170,12 +1175,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" t="s">
         <v>47</v>
       </c>
@@ -1193,12 +1198,12 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" t="s">
         <v>48</v>
       </c>
@@ -1216,12 +1221,12 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" t="s">
         <v>49</v>
       </c>
@@ -1238,8 +1243,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1272,26 +1277,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>32</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="G25" t="s">
         <v>15</v>
       </c>
@@ -1309,12 +1314,12 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" t="s">
         <v>62</v>
       </c>
@@ -1332,12 +1337,12 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="G27" t="s">
         <v>64</v>
       </c>
@@ -1355,12 +1360,12 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="G28" t="s">
         <v>65</v>
       </c>
@@ -1378,12 +1383,12 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="G29" t="s">
         <v>67</v>
       </c>
@@ -1401,12 +1406,12 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="G30" t="s">
         <v>69</v>
       </c>
@@ -1424,12 +1429,12 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
       <c r="G31" t="s">
         <v>70</v>
       </c>

--- a/dp_cc_reg.xlsx
+++ b/dp_cc_reg.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="120">
   <si>
     <t>RegName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,186 @@
   </si>
   <si>
     <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x001c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x002c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x003c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x004c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x005c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x006c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x007c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x008c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x009c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the intput</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,14 +569,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31:AT31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -767,20 +950,20 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>32</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" t="s">
         <v>15</v>
       </c>
@@ -798,12 +981,12 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" t="s">
         <v>19</v>
       </c>
@@ -821,12 +1004,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -844,12 +1027,12 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -867,12 +1050,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -890,12 +1073,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" t="s">
         <v>27</v>
       </c>
@@ -913,12 +1096,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" t="s">
         <v>28</v>
       </c>
@@ -936,12 +1119,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" t="s">
         <v>29</v>
       </c>
@@ -959,12 +1142,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" t="s">
         <v>30</v>
       </c>
@@ -982,12 +1165,12 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" t="s">
         <v>31</v>
       </c>
@@ -1005,12 +1188,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" t="s">
         <v>36</v>
       </c>
@@ -1028,12 +1211,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" t="s">
         <v>37</v>
       </c>
@@ -1051,12 +1234,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" t="s">
         <v>38</v>
       </c>
@@ -1074,20 +1257,20 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>32</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" t="s">
         <v>15</v>
       </c>
@@ -1105,12 +1288,12 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" t="s">
         <v>43</v>
       </c>
@@ -1129,12 +1312,12 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" t="s">
         <v>30</v>
       </c>
@@ -1152,12 +1335,12 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" t="s">
         <v>46</v>
       </c>
@@ -1175,12 +1358,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" t="s">
         <v>47</v>
       </c>
@@ -1198,12 +1381,12 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" t="s">
         <v>48</v>
       </c>
@@ -1221,12 +1404,12 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" t="s">
         <v>49</v>
       </c>
@@ -1243,8 +1426,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1277,13 +1460,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>53</v>
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1292,11 +1475,11 @@
       <c r="C25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>32</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" t="s">
         <v>15</v>
       </c>
@@ -1314,12 +1497,12 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" t="s">
         <v>62</v>
       </c>
@@ -1337,12 +1520,12 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" t="s">
         <v>64</v>
       </c>
@@ -1360,12 +1543,12 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="G28" t="s">
         <v>65</v>
       </c>
@@ -1383,12 +1566,12 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="G29" t="s">
         <v>67</v>
       </c>
@@ -1406,12 +1589,12 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" t="s">
         <v>69</v>
       </c>
@@ -1429,12 +1612,12 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="G31" t="s">
         <v>70</v>
       </c>
@@ -1451,16 +1634,7763 @@
         <v>18</v>
       </c>
     </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5">
+        <v>32</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="5">
+        <v>32</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>18</v>
+      </c>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="3">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="5">
+        <v>32</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="5">
+        <v>32</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="5">
+        <v>32</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>18</v>
+      </c>
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" t="s">
+        <v>50</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" t="s">
+        <v>49</v>
+      </c>
+      <c r="H82" t="s">
+        <v>52</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="M82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="3">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>56</v>
+      </c>
+      <c r="H84" t="s">
+        <v>57</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="5">
+        <v>32</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>52</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" t="s">
+        <v>62</v>
+      </c>
+      <c r="H87" t="s">
+        <v>63</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" t="s">
+        <v>64</v>
+      </c>
+      <c r="H88" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" t="s">
+        <v>65</v>
+      </c>
+      <c r="H89" t="s">
+        <v>66</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" t="s">
+        <v>67</v>
+      </c>
+      <c r="H90" t="s">
+        <v>68</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" t="s">
+        <v>69</v>
+      </c>
+      <c r="H91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" t="s">
+        <v>71</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="5">
+        <v>32</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" t="s">
+        <v>32</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A106" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="5">
+        <v>32</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>44</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>18</v>
+      </c>
+      <c r="P107" s="2"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" t="s">
+        <v>45</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="M109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" t="s">
+        <v>47</v>
+      </c>
+      <c r="H110" t="s">
+        <v>50</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" t="s">
+        <v>48</v>
+      </c>
+      <c r="H111" t="s">
+        <v>51</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" t="s">
+        <v>49</v>
+      </c>
+      <c r="H112" t="s">
+        <v>52</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>85</v>
+      </c>
+      <c r="B114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" s="3">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>56</v>
+      </c>
+      <c r="H114" t="s">
+        <v>57</v>
+      </c>
+      <c r="I114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="M114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A116" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D116" s="5">
+        <v>32</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" t="s">
+        <v>52</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" t="s">
+        <v>62</v>
+      </c>
+      <c r="H117" t="s">
+        <v>63</v>
+      </c>
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" t="s">
+        <v>64</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" t="s">
+        <v>65</v>
+      </c>
+      <c r="H119" t="s">
+        <v>66</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" t="s">
+        <v>67</v>
+      </c>
+      <c r="H120" t="s">
+        <v>68</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="M120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" t="s">
+        <v>69</v>
+      </c>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" t="s">
+        <v>70</v>
+      </c>
+      <c r="H122" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A123" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="5">
+        <v>32</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" t="s">
+        <v>21</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="M124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" t="s">
+        <v>25</v>
+      </c>
+      <c r="H127" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="M128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" t="s">
+        <v>32</v>
+      </c>
+      <c r="I129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" t="s">
+        <v>33</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="M130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" t="s">
+        <v>34</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" t="s">
+        <v>36</v>
+      </c>
+      <c r="H133" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" t="s">
+        <v>37</v>
+      </c>
+      <c r="H134" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" t="s">
+        <v>38</v>
+      </c>
+      <c r="H135" t="s">
+        <v>39</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="M135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A136" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D136" s="5">
+        <v>32</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" t="s">
+        <v>44</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="M136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" t="s">
+        <v>43</v>
+      </c>
+      <c r="H137" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>18</v>
+      </c>
+      <c r="P137" s="2"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" t="s">
+        <v>45</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="M138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="M139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" t="s">
+        <v>47</v>
+      </c>
+      <c r="H140" t="s">
+        <v>50</v>
+      </c>
+      <c r="I140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="M140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" t="s">
+        <v>48</v>
+      </c>
+      <c r="H141" t="s">
+        <v>51</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="M141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" t="s">
+        <v>49</v>
+      </c>
+      <c r="H142" t="s">
+        <v>52</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="M142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>89</v>
+      </c>
+      <c r="B144" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144" t="s">
+        <v>55</v>
+      </c>
+      <c r="D144" s="3">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s">
+        <v>56</v>
+      </c>
+      <c r="H144" t="s">
+        <v>57</v>
+      </c>
+      <c r="I144" t="s">
+        <v>21</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="M144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A146" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D146" s="5">
+        <v>32</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
+        <v>52</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="M146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A147" s="5"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" t="s">
+        <v>62</v>
+      </c>
+      <c r="H147" t="s">
+        <v>63</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="M147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A148" s="5"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" t="s">
+        <v>64</v>
+      </c>
+      <c r="H148" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A149" s="5"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" t="s">
+        <v>65</v>
+      </c>
+      <c r="H149" t="s">
+        <v>66</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="M149" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A150" s="5"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" t="s">
+        <v>67</v>
+      </c>
+      <c r="H150" t="s">
+        <v>68</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="M150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A151" s="5"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" t="s">
+        <v>69</v>
+      </c>
+      <c r="H151" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="M151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" t="s">
+        <v>70</v>
+      </c>
+      <c r="H152" t="s">
+        <v>71</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="M152" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A154" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="5">
+        <v>32</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="M154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" t="s">
+        <v>19</v>
+      </c>
+      <c r="H155" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="M155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" t="s">
+        <v>23</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="M156" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" t="s">
+        <v>24</v>
+      </c>
+      <c r="H157" t="s">
+        <v>20</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="M157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158" t="s">
+        <v>26</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="M158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" t="s">
+        <v>27</v>
+      </c>
+      <c r="H159" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="M159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" t="s">
+        <v>28</v>
+      </c>
+      <c r="H160" t="s">
+        <v>32</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="M160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" t="s">
+        <v>29</v>
+      </c>
+      <c r="H161" t="s">
+        <v>33</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="M161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" t="s">
+        <v>30</v>
+      </c>
+      <c r="H162" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="M162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" t="s">
+        <v>31</v>
+      </c>
+      <c r="H163" t="s">
+        <v>34</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="M163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" t="s">
+        <v>36</v>
+      </c>
+      <c r="H164" t="s">
+        <v>35</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="M164" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" t="s">
+        <v>37</v>
+      </c>
+      <c r="H165" t="s">
+        <v>20</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="M165" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" t="s">
+        <v>38</v>
+      </c>
+      <c r="H166" t="s">
+        <v>39</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="M166" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A167" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D167" s="5">
+        <v>32</v>
+      </c>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>44</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="M167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" t="s">
+        <v>43</v>
+      </c>
+      <c r="H168" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="M168" t="s">
+        <v>18</v>
+      </c>
+      <c r="P168" s="2"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169" t="s">
+        <v>45</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="M169" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" t="s">
+        <v>46</v>
+      </c>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="M170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" t="s">
+        <v>47</v>
+      </c>
+      <c r="H171" t="s">
+        <v>50</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="M171" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" t="s">
+        <v>48</v>
+      </c>
+      <c r="H172" t="s">
+        <v>51</v>
+      </c>
+      <c r="I172" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="M172" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" t="s">
+        <v>49</v>
+      </c>
+      <c r="H173" t="s">
+        <v>52</v>
+      </c>
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="M173" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>93</v>
+      </c>
+      <c r="B175" t="s">
+        <v>54</v>
+      </c>
+      <c r="C175" t="s">
+        <v>55</v>
+      </c>
+      <c r="D175" s="3">
+        <v>32</v>
+      </c>
+      <c r="G175" t="s">
+        <v>56</v>
+      </c>
+      <c r="H175" t="s">
+        <v>57</v>
+      </c>
+      <c r="I175" t="s">
+        <v>21</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="M175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A177" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D177" s="5">
+        <v>32</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" t="s">
+        <v>52</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="M177" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A178" s="5"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" t="s">
+        <v>62</v>
+      </c>
+      <c r="H178" t="s">
+        <v>63</v>
+      </c>
+      <c r="I178" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="M178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A179" s="5"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" t="s">
+        <v>64</v>
+      </c>
+      <c r="H179" t="s">
+        <v>20</v>
+      </c>
+      <c r="I179" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="M179" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A180" s="5"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" t="s">
+        <v>65</v>
+      </c>
+      <c r="H180" t="s">
+        <v>66</v>
+      </c>
+      <c r="I180" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="M180" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A181" s="5"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" t="s">
+        <v>67</v>
+      </c>
+      <c r="H181" t="s">
+        <v>68</v>
+      </c>
+      <c r="I181" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="M181" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A182" s="5"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" t="s">
+        <v>69</v>
+      </c>
+      <c r="H182" t="s">
+        <v>20</v>
+      </c>
+      <c r="I182" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="M182" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A183" s="5"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" t="s">
+        <v>70</v>
+      </c>
+      <c r="H183" t="s">
+        <v>71</v>
+      </c>
+      <c r="I183" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="M183" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A184" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="5">
+        <v>32</v>
+      </c>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" t="s">
+        <v>16</v>
+      </c>
+      <c r="I184" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="M184" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" t="s">
+        <v>19</v>
+      </c>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185" t="s">
+        <v>21</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="M185" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" t="s">
+        <v>22</v>
+      </c>
+      <c r="H186" t="s">
+        <v>23</v>
+      </c>
+      <c r="I186" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="M186" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="M187" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" t="s">
+        <v>26</v>
+      </c>
+      <c r="I188" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="M188" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" t="s">
+        <v>27</v>
+      </c>
+      <c r="H189" t="s">
+        <v>20</v>
+      </c>
+      <c r="I189" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="M189" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" t="s">
+        <v>28</v>
+      </c>
+      <c r="H190" t="s">
+        <v>32</v>
+      </c>
+      <c r="I190" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="M190" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+      <c r="H191" t="s">
+        <v>33</v>
+      </c>
+      <c r="I191" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="M191" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" t="s">
+        <v>20</v>
+      </c>
+      <c r="I192" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="M192" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" t="s">
+        <v>31</v>
+      </c>
+      <c r="H193" t="s">
+        <v>34</v>
+      </c>
+      <c r="I193" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="M193" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" t="s">
+        <v>36</v>
+      </c>
+      <c r="H194" t="s">
+        <v>35</v>
+      </c>
+      <c r="I194" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="M194" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" t="s">
+        <v>37</v>
+      </c>
+      <c r="H195" t="s">
+        <v>20</v>
+      </c>
+      <c r="I195" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="M195" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" t="s">
+        <v>38</v>
+      </c>
+      <c r="H196" t="s">
+        <v>39</v>
+      </c>
+      <c r="I196" t="s">
+        <v>17</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="M196" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A197" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D197" s="5">
+        <v>32</v>
+      </c>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" t="s">
+        <v>44</v>
+      </c>
+      <c r="I197" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="M197" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" t="s">
+        <v>43</v>
+      </c>
+      <c r="H198" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="M198" t="s">
+        <v>18</v>
+      </c>
+      <c r="P198" s="2"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199" t="s">
+        <v>45</v>
+      </c>
+      <c r="I199" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="M199" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" t="s">
+        <v>46</v>
+      </c>
+      <c r="H200" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="M200" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" t="s">
+        <v>47</v>
+      </c>
+      <c r="H201" t="s">
+        <v>50</v>
+      </c>
+      <c r="I201" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="M201" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+      <c r="G202" t="s">
+        <v>48</v>
+      </c>
+      <c r="H202" t="s">
+        <v>51</v>
+      </c>
+      <c r="I202" t="s">
+        <v>17</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="M202" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" t="s">
+        <v>49</v>
+      </c>
+      <c r="H203" t="s">
+        <v>52</v>
+      </c>
+      <c r="I203" t="s">
+        <v>17</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="M203" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>97</v>
+      </c>
+      <c r="B205" t="s">
+        <v>54</v>
+      </c>
+      <c r="C205" t="s">
+        <v>55</v>
+      </c>
+      <c r="D205" s="3">
+        <v>32</v>
+      </c>
+      <c r="G205" t="s">
+        <v>56</v>
+      </c>
+      <c r="H205" t="s">
+        <v>57</v>
+      </c>
+      <c r="I205" t="s">
+        <v>21</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="M205" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A207" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D207" s="5">
+        <v>32</v>
+      </c>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207" t="s">
+        <v>52</v>
+      </c>
+      <c r="I207" t="s">
+        <v>17</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="M207" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A208" s="5"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" t="s">
+        <v>62</v>
+      </c>
+      <c r="H208" t="s">
+        <v>63</v>
+      </c>
+      <c r="I208" t="s">
+        <v>17</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="M208" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A209" s="5"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
+      <c r="G209" t="s">
+        <v>64</v>
+      </c>
+      <c r="H209" t="s">
+        <v>20</v>
+      </c>
+      <c r="I209" t="s">
+        <v>17</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="M209" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A210" s="5"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+      <c r="G210" t="s">
+        <v>65</v>
+      </c>
+      <c r="H210" t="s">
+        <v>66</v>
+      </c>
+      <c r="I210" t="s">
+        <v>17</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="M210" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A211" s="5"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" t="s">
+        <v>67</v>
+      </c>
+      <c r="H211" t="s">
+        <v>68</v>
+      </c>
+      <c r="I211" t="s">
+        <v>17</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="M211" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A212" s="5"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
+      <c r="G212" t="s">
+        <v>69</v>
+      </c>
+      <c r="H212" t="s">
+        <v>20</v>
+      </c>
+      <c r="I212" t="s">
+        <v>17</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="M212" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A213" s="5"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" t="s">
+        <v>70</v>
+      </c>
+      <c r="H213" t="s">
+        <v>71</v>
+      </c>
+      <c r="I213" t="s">
+        <v>17</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="M213" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A214" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="5">
+        <v>32</v>
+      </c>
+      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
+      <c r="G214" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" t="s">
+        <v>17</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="M214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
+      <c r="G215" t="s">
+        <v>19</v>
+      </c>
+      <c r="H215" t="s">
+        <v>20</v>
+      </c>
+      <c r="I215" t="s">
+        <v>21</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="M215" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
+      <c r="G216" t="s">
+        <v>22</v>
+      </c>
+      <c r="H216" t="s">
+        <v>23</v>
+      </c>
+      <c r="I216" t="s">
+        <v>17</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="M216" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" t="s">
+        <v>24</v>
+      </c>
+      <c r="H217" t="s">
+        <v>20</v>
+      </c>
+      <c r="I217" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="M217" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
+      <c r="G218" t="s">
+        <v>25</v>
+      </c>
+      <c r="H218" t="s">
+        <v>26</v>
+      </c>
+      <c r="I218" t="s">
+        <v>17</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="M218" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
+      <c r="G219" t="s">
+        <v>27</v>
+      </c>
+      <c r="H219" t="s">
+        <v>20</v>
+      </c>
+      <c r="I219" t="s">
+        <v>17</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="M219" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" t="s">
+        <v>28</v>
+      </c>
+      <c r="H220" t="s">
+        <v>32</v>
+      </c>
+      <c r="I220" t="s">
+        <v>17</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="M220" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" t="s">
+        <v>29</v>
+      </c>
+      <c r="H221" t="s">
+        <v>33</v>
+      </c>
+      <c r="I221" t="s">
+        <v>17</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="M221" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" t="s">
+        <v>30</v>
+      </c>
+      <c r="H222" t="s">
+        <v>20</v>
+      </c>
+      <c r="I222" t="s">
+        <v>17</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="M222" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
+      <c r="G223" t="s">
+        <v>31</v>
+      </c>
+      <c r="H223" t="s">
+        <v>34</v>
+      </c>
+      <c r="I223" t="s">
+        <v>17</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="M223" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
+      <c r="G224" t="s">
+        <v>36</v>
+      </c>
+      <c r="H224" t="s">
+        <v>35</v>
+      </c>
+      <c r="I224" t="s">
+        <v>17</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="M224" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" t="s">
+        <v>37</v>
+      </c>
+      <c r="H225" t="s">
+        <v>20</v>
+      </c>
+      <c r="I225" t="s">
+        <v>17</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="M225" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" t="s">
+        <v>38</v>
+      </c>
+      <c r="H226" t="s">
+        <v>39</v>
+      </c>
+      <c r="I226" t="s">
+        <v>17</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="M226" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A227" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D227" s="5">
+        <v>32</v>
+      </c>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+      <c r="G227" t="s">
+        <v>15</v>
+      </c>
+      <c r="H227" t="s">
+        <v>44</v>
+      </c>
+      <c r="I227" t="s">
+        <v>17</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="M227" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" t="s">
+        <v>43</v>
+      </c>
+      <c r="H228" t="s">
+        <v>20</v>
+      </c>
+      <c r="I228" t="s">
+        <v>17</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="M228" t="s">
+        <v>18</v>
+      </c>
+      <c r="P228" s="2"/>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" t="s">
+        <v>30</v>
+      </c>
+      <c r="H229" t="s">
+        <v>45</v>
+      </c>
+      <c r="I229" t="s">
+        <v>17</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="M229" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" t="s">
+        <v>46</v>
+      </c>
+      <c r="H230" t="s">
+        <v>20</v>
+      </c>
+      <c r="I230" t="s">
+        <v>17</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="M230" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
+      <c r="G231" t="s">
+        <v>47</v>
+      </c>
+      <c r="H231" t="s">
+        <v>50</v>
+      </c>
+      <c r="I231" t="s">
+        <v>17</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="M231" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" t="s">
+        <v>48</v>
+      </c>
+      <c r="H232" t="s">
+        <v>51</v>
+      </c>
+      <c r="I232" t="s">
+        <v>17</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="M232" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" t="s">
+        <v>49</v>
+      </c>
+      <c r="H233" t="s">
+        <v>52</v>
+      </c>
+      <c r="I233" t="s">
+        <v>17</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="M233" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>101</v>
+      </c>
+      <c r="B235" t="s">
+        <v>54</v>
+      </c>
+      <c r="C235" t="s">
+        <v>55</v>
+      </c>
+      <c r="D235" s="3">
+        <v>32</v>
+      </c>
+      <c r="G235" t="s">
+        <v>56</v>
+      </c>
+      <c r="H235" t="s">
+        <v>57</v>
+      </c>
+      <c r="I235" t="s">
+        <v>21</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="M235" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A237" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D237" s="5">
+        <v>32</v>
+      </c>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
+      <c r="G237" t="s">
+        <v>15</v>
+      </c>
+      <c r="H237" t="s">
+        <v>52</v>
+      </c>
+      <c r="I237" t="s">
+        <v>17</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="M237" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A238" s="5"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
+      <c r="G238" t="s">
+        <v>62</v>
+      </c>
+      <c r="H238" t="s">
+        <v>63</v>
+      </c>
+      <c r="I238" t="s">
+        <v>17</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="M238" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A239" s="5"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+      <c r="G239" t="s">
+        <v>64</v>
+      </c>
+      <c r="H239" t="s">
+        <v>20</v>
+      </c>
+      <c r="I239" t="s">
+        <v>17</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="M239" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A240" s="5"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" t="s">
+        <v>65</v>
+      </c>
+      <c r="H240" t="s">
+        <v>66</v>
+      </c>
+      <c r="I240" t="s">
+        <v>17</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="M240" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A241" s="5"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" t="s">
+        <v>67</v>
+      </c>
+      <c r="H241" t="s">
+        <v>68</v>
+      </c>
+      <c r="I241" t="s">
+        <v>17</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="M241" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A242" s="5"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" t="s">
+        <v>69</v>
+      </c>
+      <c r="H242" t="s">
+        <v>20</v>
+      </c>
+      <c r="I242" t="s">
+        <v>17</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="M242" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A243" s="5"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" t="s">
+        <v>70</v>
+      </c>
+      <c r="H243" t="s">
+        <v>71</v>
+      </c>
+      <c r="I243" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="M243" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A245" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245" s="5">
+        <v>32</v>
+      </c>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245" t="s">
+        <v>16</v>
+      </c>
+      <c r="I245" t="s">
+        <v>17</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="M245" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A246" s="5"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+      <c r="G246" t="s">
+        <v>19</v>
+      </c>
+      <c r="H246" t="s">
+        <v>20</v>
+      </c>
+      <c r="I246" t="s">
+        <v>21</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="M246" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="7"/>
+      <c r="G247" t="s">
+        <v>22</v>
+      </c>
+      <c r="H247" t="s">
+        <v>23</v>
+      </c>
+      <c r="I247" t="s">
+        <v>17</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="M247" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
+      <c r="G248" t="s">
+        <v>24</v>
+      </c>
+      <c r="H248" t="s">
+        <v>20</v>
+      </c>
+      <c r="I248" t="s">
+        <v>17</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="M248" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
+      <c r="G249" t="s">
+        <v>25</v>
+      </c>
+      <c r="H249" t="s">
+        <v>26</v>
+      </c>
+      <c r="I249" t="s">
+        <v>17</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="M249" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" t="s">
+        <v>27</v>
+      </c>
+      <c r="H250" t="s">
+        <v>20</v>
+      </c>
+      <c r="I250" t="s">
+        <v>17</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="M250" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A251" s="5"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" t="s">
+        <v>28</v>
+      </c>
+      <c r="H251" t="s">
+        <v>32</v>
+      </c>
+      <c r="I251" t="s">
+        <v>17</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="M251" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A252" s="5"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
+      <c r="G252" t="s">
+        <v>29</v>
+      </c>
+      <c r="H252" t="s">
+        <v>33</v>
+      </c>
+      <c r="I252" t="s">
+        <v>17</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="M252" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A253" s="5"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+      <c r="G253" t="s">
+        <v>30</v>
+      </c>
+      <c r="H253" t="s">
+        <v>20</v>
+      </c>
+      <c r="I253" t="s">
+        <v>17</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="M253" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" t="s">
+        <v>31</v>
+      </c>
+      <c r="H254" t="s">
+        <v>34</v>
+      </c>
+      <c r="I254" t="s">
+        <v>17</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="M254" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
+      <c r="G255" t="s">
+        <v>36</v>
+      </c>
+      <c r="H255" t="s">
+        <v>35</v>
+      </c>
+      <c r="I255" t="s">
+        <v>17</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="M255" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" t="s">
+        <v>37</v>
+      </c>
+      <c r="H256" t="s">
+        <v>20</v>
+      </c>
+      <c r="I256" t="s">
+        <v>17</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="M256" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" t="s">
+        <v>38</v>
+      </c>
+      <c r="H257" t="s">
+        <v>39</v>
+      </c>
+      <c r="I257" t="s">
+        <v>17</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="M257" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A258" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D258" s="5">
+        <v>32</v>
+      </c>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258" t="s">
+        <v>44</v>
+      </c>
+      <c r="I258" t="s">
+        <v>17</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="M258" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" t="s">
+        <v>43</v>
+      </c>
+      <c r="H259" t="s">
+        <v>20</v>
+      </c>
+      <c r="I259" t="s">
+        <v>17</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="M259" t="s">
+        <v>18</v>
+      </c>
+      <c r="P259" s="2"/>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
+      <c r="G260" t="s">
+        <v>30</v>
+      </c>
+      <c r="H260" t="s">
+        <v>45</v>
+      </c>
+      <c r="I260" t="s">
+        <v>17</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="M260" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
+      <c r="G261" t="s">
+        <v>46</v>
+      </c>
+      <c r="H261" t="s">
+        <v>20</v>
+      </c>
+      <c r="I261" t="s">
+        <v>17</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="M261" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" t="s">
+        <v>47</v>
+      </c>
+      <c r="H262" t="s">
+        <v>50</v>
+      </c>
+      <c r="I262" t="s">
+        <v>17</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="M262" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" t="s">
+        <v>48</v>
+      </c>
+      <c r="H263" t="s">
+        <v>51</v>
+      </c>
+      <c r="I263" t="s">
+        <v>17</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="M263" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
+      <c r="G264" t="s">
+        <v>49</v>
+      </c>
+      <c r="H264" t="s">
+        <v>52</v>
+      </c>
+      <c r="I264" t="s">
+        <v>17</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="M264" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>105</v>
+      </c>
+      <c r="B266" t="s">
+        <v>54</v>
+      </c>
+      <c r="C266" t="s">
+        <v>55</v>
+      </c>
+      <c r="D266" s="3">
+        <v>32</v>
+      </c>
+      <c r="G266" t="s">
+        <v>56</v>
+      </c>
+      <c r="H266" t="s">
+        <v>57</v>
+      </c>
+      <c r="I266" t="s">
+        <v>21</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="M266" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A268" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D268" s="5">
+        <v>32</v>
+      </c>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+      <c r="G268" t="s">
+        <v>15</v>
+      </c>
+      <c r="H268" t="s">
+        <v>52</v>
+      </c>
+      <c r="I268" t="s">
+        <v>17</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="M268" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A269" s="5"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" t="s">
+        <v>62</v>
+      </c>
+      <c r="H269" t="s">
+        <v>63</v>
+      </c>
+      <c r="I269" t="s">
+        <v>17</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="M269" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A270" s="5"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" t="s">
+        <v>64</v>
+      </c>
+      <c r="H270" t="s">
+        <v>20</v>
+      </c>
+      <c r="I270" t="s">
+        <v>17</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="M270" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A271" s="5"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" t="s">
+        <v>65</v>
+      </c>
+      <c r="H271" t="s">
+        <v>66</v>
+      </c>
+      <c r="I271" t="s">
+        <v>17</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="M271" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A272" s="5"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
+      <c r="G272" t="s">
+        <v>67</v>
+      </c>
+      <c r="H272" t="s">
+        <v>68</v>
+      </c>
+      <c r="I272" t="s">
+        <v>17</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="M272" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A273" s="5"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
+      <c r="G273" t="s">
+        <v>69</v>
+      </c>
+      <c r="H273" t="s">
+        <v>20</v>
+      </c>
+      <c r="I273" t="s">
+        <v>17</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="M273" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A274" s="5"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
+      <c r="G274" t="s">
+        <v>70</v>
+      </c>
+      <c r="H274" t="s">
+        <v>71</v>
+      </c>
+      <c r="I274" t="s">
+        <v>17</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="M274" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A275" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="5">
+        <v>32</v>
+      </c>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" t="s">
+        <v>15</v>
+      </c>
+      <c r="H275" t="s">
+        <v>16</v>
+      </c>
+      <c r="I275" t="s">
+        <v>17</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="M275" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" t="s">
+        <v>19</v>
+      </c>
+      <c r="H276" t="s">
+        <v>20</v>
+      </c>
+      <c r="I276" t="s">
+        <v>21</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="M276" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
+      <c r="G277" t="s">
+        <v>22</v>
+      </c>
+      <c r="H277" t="s">
+        <v>23</v>
+      </c>
+      <c r="I277" t="s">
+        <v>17</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="M277" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
+      <c r="G278" t="s">
+        <v>24</v>
+      </c>
+      <c r="H278" t="s">
+        <v>20</v>
+      </c>
+      <c r="I278" t="s">
+        <v>17</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="M278" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="7"/>
+      <c r="G279" t="s">
+        <v>25</v>
+      </c>
+      <c r="H279" t="s">
+        <v>26</v>
+      </c>
+      <c r="I279" t="s">
+        <v>17</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="M279" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A280" s="5"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
+      <c r="G280" t="s">
+        <v>27</v>
+      </c>
+      <c r="H280" t="s">
+        <v>20</v>
+      </c>
+      <c r="I280" t="s">
+        <v>17</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="M280" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="7"/>
+      <c r="G281" t="s">
+        <v>28</v>
+      </c>
+      <c r="H281" t="s">
+        <v>32</v>
+      </c>
+      <c r="I281" t="s">
+        <v>17</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="M281" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A282" s="5"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
+      <c r="G282" t="s">
+        <v>29</v>
+      </c>
+      <c r="H282" t="s">
+        <v>33</v>
+      </c>
+      <c r="I282" t="s">
+        <v>17</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="M282" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A283" s="5"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+      <c r="G283" t="s">
+        <v>30</v>
+      </c>
+      <c r="H283" t="s">
+        <v>20</v>
+      </c>
+      <c r="I283" t="s">
+        <v>17</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="M283" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A284" s="5"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+      <c r="G284" t="s">
+        <v>31</v>
+      </c>
+      <c r="H284" t="s">
+        <v>34</v>
+      </c>
+      <c r="I284" t="s">
+        <v>17</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="M284" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="7"/>
+      <c r="G285" t="s">
+        <v>36</v>
+      </c>
+      <c r="H285" t="s">
+        <v>35</v>
+      </c>
+      <c r="I285" t="s">
+        <v>17</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="M285" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A286" s="5"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+      <c r="G286" t="s">
+        <v>37</v>
+      </c>
+      <c r="H286" t="s">
+        <v>20</v>
+      </c>
+      <c r="I286" t="s">
+        <v>17</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="M286" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A287" s="5"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
+      <c r="G287" t="s">
+        <v>38</v>
+      </c>
+      <c r="H287" t="s">
+        <v>39</v>
+      </c>
+      <c r="I287" t="s">
+        <v>17</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="M287" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A288" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D288" s="5">
+        <v>32</v>
+      </c>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
+      <c r="G288" t="s">
+        <v>15</v>
+      </c>
+      <c r="H288" t="s">
+        <v>44</v>
+      </c>
+      <c r="I288" t="s">
+        <v>17</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="M288" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A289" s="5"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
+      <c r="G289" t="s">
+        <v>43</v>
+      </c>
+      <c r="H289" t="s">
+        <v>20</v>
+      </c>
+      <c r="I289" t="s">
+        <v>17</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="M289" t="s">
+        <v>18</v>
+      </c>
+      <c r="P289" s="2"/>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
+      <c r="G290" t="s">
+        <v>30</v>
+      </c>
+      <c r="H290" t="s">
+        <v>45</v>
+      </c>
+      <c r="I290" t="s">
+        <v>17</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="M290" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="7"/>
+      <c r="G291" t="s">
+        <v>46</v>
+      </c>
+      <c r="H291" t="s">
+        <v>20</v>
+      </c>
+      <c r="I291" t="s">
+        <v>17</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="M291" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A292" s="5"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
+      <c r="G292" t="s">
+        <v>47</v>
+      </c>
+      <c r="H292" t="s">
+        <v>50</v>
+      </c>
+      <c r="I292" t="s">
+        <v>17</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="M292" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A293" s="5"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="7"/>
+      <c r="G293" t="s">
+        <v>48</v>
+      </c>
+      <c r="H293" t="s">
+        <v>51</v>
+      </c>
+      <c r="I293" t="s">
+        <v>17</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="M293" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A294" s="5"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" t="s">
+        <v>49</v>
+      </c>
+      <c r="H294" t="s">
+        <v>52</v>
+      </c>
+      <c r="I294" t="s">
+        <v>17</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="M294" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
+        <v>109</v>
+      </c>
+      <c r="B296" t="s">
+        <v>54</v>
+      </c>
+      <c r="C296" t="s">
+        <v>55</v>
+      </c>
+      <c r="D296" s="3">
+        <v>32</v>
+      </c>
+      <c r="G296" t="s">
+        <v>56</v>
+      </c>
+      <c r="H296" t="s">
+        <v>57</v>
+      </c>
+      <c r="I296" t="s">
+        <v>21</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="M296" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A298" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D298" s="5">
+        <v>32</v>
+      </c>
+      <c r="E298" s="7"/>
+      <c r="F298" s="7"/>
+      <c r="G298" t="s">
+        <v>15</v>
+      </c>
+      <c r="H298" t="s">
+        <v>52</v>
+      </c>
+      <c r="I298" t="s">
+        <v>17</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="M298" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A299" s="5"/>
+      <c r="B299" s="6"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="7"/>
+      <c r="F299" s="7"/>
+      <c r="G299" t="s">
+        <v>62</v>
+      </c>
+      <c r="H299" t="s">
+        <v>63</v>
+      </c>
+      <c r="I299" t="s">
+        <v>17</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="M299" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A300" s="5"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="7"/>
+      <c r="F300" s="7"/>
+      <c r="G300" t="s">
+        <v>64</v>
+      </c>
+      <c r="H300" t="s">
+        <v>20</v>
+      </c>
+      <c r="I300" t="s">
+        <v>17</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="M300" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A301" s="5"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="7"/>
+      <c r="F301" s="7"/>
+      <c r="G301" t="s">
+        <v>65</v>
+      </c>
+      <c r="H301" t="s">
+        <v>66</v>
+      </c>
+      <c r="I301" t="s">
+        <v>17</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="M301" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A302" s="5"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="7"/>
+      <c r="G302" t="s">
+        <v>67</v>
+      </c>
+      <c r="H302" t="s">
+        <v>68</v>
+      </c>
+      <c r="I302" t="s">
+        <v>17</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="M302" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A303" s="5"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="7"/>
+      <c r="F303" s="7"/>
+      <c r="G303" t="s">
+        <v>69</v>
+      </c>
+      <c r="H303" t="s">
+        <v>20</v>
+      </c>
+      <c r="I303" t="s">
+        <v>17</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="M303" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A304" s="5"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="7"/>
+      <c r="F304" s="7"/>
+      <c r="G304" t="s">
+        <v>70</v>
+      </c>
+      <c r="H304" t="s">
+        <v>71</v>
+      </c>
+      <c r="I304" t="s">
+        <v>17</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="M304" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A305" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" s="5">
+        <v>32</v>
+      </c>
+      <c r="E305" s="7"/>
+      <c r="F305" s="7"/>
+      <c r="G305" t="s">
+        <v>15</v>
+      </c>
+      <c r="H305" t="s">
+        <v>16</v>
+      </c>
+      <c r="I305" t="s">
+        <v>17</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="M305" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A306" s="5"/>
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="7"/>
+      <c r="F306" s="7"/>
+      <c r="G306" t="s">
+        <v>19</v>
+      </c>
+      <c r="H306" t="s">
+        <v>20</v>
+      </c>
+      <c r="I306" t="s">
+        <v>21</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="M306" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A307" s="5"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
+      <c r="G307" t="s">
+        <v>22</v>
+      </c>
+      <c r="H307" t="s">
+        <v>23</v>
+      </c>
+      <c r="I307" t="s">
+        <v>17</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="M307" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A308" s="5"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
+      <c r="G308" t="s">
+        <v>24</v>
+      </c>
+      <c r="H308" t="s">
+        <v>20</v>
+      </c>
+      <c r="I308" t="s">
+        <v>17</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="M308" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A309" s="5"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="7"/>
+      <c r="G309" t="s">
+        <v>25</v>
+      </c>
+      <c r="H309" t="s">
+        <v>26</v>
+      </c>
+      <c r="I309" t="s">
+        <v>17</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="M309" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A310" s="5"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" t="s">
+        <v>27</v>
+      </c>
+      <c r="H310" t="s">
+        <v>20</v>
+      </c>
+      <c r="I310" t="s">
+        <v>17</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="M310" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A311" s="5"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="7"/>
+      <c r="G311" t="s">
+        <v>28</v>
+      </c>
+      <c r="H311" t="s">
+        <v>32</v>
+      </c>
+      <c r="I311" t="s">
+        <v>17</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="M311" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A312" s="5"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="7"/>
+      <c r="F312" s="7"/>
+      <c r="G312" t="s">
+        <v>29</v>
+      </c>
+      <c r="H312" t="s">
+        <v>33</v>
+      </c>
+      <c r="I312" t="s">
+        <v>17</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="M312" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A313" s="5"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="7"/>
+      <c r="F313" s="7"/>
+      <c r="G313" t="s">
+        <v>30</v>
+      </c>
+      <c r="H313" t="s">
+        <v>20</v>
+      </c>
+      <c r="I313" t="s">
+        <v>17</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="M313" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="7"/>
+      <c r="F314" s="7"/>
+      <c r="G314" t="s">
+        <v>31</v>
+      </c>
+      <c r="H314" t="s">
+        <v>34</v>
+      </c>
+      <c r="I314" t="s">
+        <v>17</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="M314" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A315" s="5"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="7"/>
+      <c r="F315" s="7"/>
+      <c r="G315" t="s">
+        <v>36</v>
+      </c>
+      <c r="H315" t="s">
+        <v>35</v>
+      </c>
+      <c r="I315" t="s">
+        <v>17</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="M315" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A316" s="5"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="7"/>
+      <c r="F316" s="7"/>
+      <c r="G316" t="s">
+        <v>37</v>
+      </c>
+      <c r="H316" t="s">
+        <v>20</v>
+      </c>
+      <c r="I316" t="s">
+        <v>17</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="M316" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A317" s="5"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="7"/>
+      <c r="F317" s="7"/>
+      <c r="G317" t="s">
+        <v>38</v>
+      </c>
+      <c r="H317" t="s">
+        <v>39</v>
+      </c>
+      <c r="I317" t="s">
+        <v>17</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="M317" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A318" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D318" s="5">
+        <v>32</v>
+      </c>
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+      <c r="G318" t="s">
+        <v>15</v>
+      </c>
+      <c r="H318" t="s">
+        <v>44</v>
+      </c>
+      <c r="I318" t="s">
+        <v>17</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="M318" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A319" s="5"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="7"/>
+      <c r="F319" s="7"/>
+      <c r="G319" t="s">
+        <v>43</v>
+      </c>
+      <c r="H319" t="s">
+        <v>20</v>
+      </c>
+      <c r="I319" t="s">
+        <v>17</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="M319" t="s">
+        <v>18</v>
+      </c>
+      <c r="P319" s="2"/>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A320" s="5"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="7"/>
+      <c r="F320" s="7"/>
+      <c r="G320" t="s">
+        <v>30</v>
+      </c>
+      <c r="H320" t="s">
+        <v>45</v>
+      </c>
+      <c r="I320" t="s">
+        <v>17</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="M320" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A321" s="5"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="7"/>
+      <c r="F321" s="7"/>
+      <c r="G321" t="s">
+        <v>46</v>
+      </c>
+      <c r="H321" t="s">
+        <v>20</v>
+      </c>
+      <c r="I321" t="s">
+        <v>17</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="M321" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A322" s="5"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="7"/>
+      <c r="F322" s="7"/>
+      <c r="G322" t="s">
+        <v>47</v>
+      </c>
+      <c r="H322" t="s">
+        <v>50</v>
+      </c>
+      <c r="I322" t="s">
+        <v>17</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="M322" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A323" s="5"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="7"/>
+      <c r="F323" s="7"/>
+      <c r="G323" t="s">
+        <v>48</v>
+      </c>
+      <c r="H323" t="s">
+        <v>51</v>
+      </c>
+      <c r="I323" t="s">
+        <v>17</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="M323" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A324" s="5"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="7"/>
+      <c r="F324" s="7"/>
+      <c r="G324" t="s">
+        <v>49</v>
+      </c>
+      <c r="H324" t="s">
+        <v>52</v>
+      </c>
+      <c r="I324" t="s">
+        <v>17</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="M324" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A326" t="s">
+        <v>113</v>
+      </c>
+      <c r="B326" t="s">
+        <v>54</v>
+      </c>
+      <c r="C326" t="s">
+        <v>55</v>
+      </c>
+      <c r="D326" s="3">
+        <v>32</v>
+      </c>
+      <c r="G326" t="s">
+        <v>56</v>
+      </c>
+      <c r="H326" t="s">
+        <v>57</v>
+      </c>
+      <c r="I326" t="s">
+        <v>21</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="M326" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A328" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D328" s="5">
+        <v>32</v>
+      </c>
+      <c r="E328" s="7"/>
+      <c r="F328" s="7"/>
+      <c r="G328" t="s">
+        <v>15</v>
+      </c>
+      <c r="H328" t="s">
+        <v>52</v>
+      </c>
+      <c r="I328" t="s">
+        <v>17</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="M328" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A329" s="5"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="7"/>
+      <c r="G329" t="s">
+        <v>62</v>
+      </c>
+      <c r="H329" t="s">
+        <v>63</v>
+      </c>
+      <c r="I329" t="s">
+        <v>17</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="M329" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A330" s="5"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="7"/>
+      <c r="F330" s="7"/>
+      <c r="G330" t="s">
+        <v>64</v>
+      </c>
+      <c r="H330" t="s">
+        <v>20</v>
+      </c>
+      <c r="I330" t="s">
+        <v>17</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="M330" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A331" s="5"/>
+      <c r="B331" s="6"/>
+      <c r="C331" s="6"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="7"/>
+      <c r="F331" s="7"/>
+      <c r="G331" t="s">
+        <v>65</v>
+      </c>
+      <c r="H331" t="s">
+        <v>66</v>
+      </c>
+      <c r="I331" t="s">
+        <v>17</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="M331" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A332" s="5"/>
+      <c r="B332" s="6"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="7"/>
+      <c r="F332" s="7"/>
+      <c r="G332" t="s">
+        <v>67</v>
+      </c>
+      <c r="H332" t="s">
+        <v>68</v>
+      </c>
+      <c r="I332" t="s">
+        <v>17</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="M332" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A333" s="5"/>
+      <c r="B333" s="6"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="7"/>
+      <c r="F333" s="7"/>
+      <c r="G333" t="s">
+        <v>69</v>
+      </c>
+      <c r="H333" t="s">
+        <v>20</v>
+      </c>
+      <c r="I333" t="s">
+        <v>17</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="M333" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A334" s="5"/>
+      <c r="B334" s="6"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="7"/>
+      <c r="F334" s="7"/>
+      <c r="G334" t="s">
+        <v>70</v>
+      </c>
+      <c r="H334" t="s">
+        <v>71</v>
+      </c>
+      <c r="I334" t="s">
+        <v>17</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="M334" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A336" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D336" s="5">
+        <v>32</v>
+      </c>
+      <c r="E336" s="7"/>
+      <c r="F336" s="7"/>
+      <c r="G336" t="s">
+        <v>15</v>
+      </c>
+      <c r="H336" t="s">
+        <v>16</v>
+      </c>
+      <c r="I336" t="s">
+        <v>17</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="M336" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A337" s="5"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="7"/>
+      <c r="F337" s="7"/>
+      <c r="G337" t="s">
+        <v>19</v>
+      </c>
+      <c r="H337" t="s">
+        <v>20</v>
+      </c>
+      <c r="I337" t="s">
+        <v>21</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="M337" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A338" s="5"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="7"/>
+      <c r="F338" s="7"/>
+      <c r="G338" t="s">
+        <v>22</v>
+      </c>
+      <c r="H338" t="s">
+        <v>23</v>
+      </c>
+      <c r="I338" t="s">
+        <v>17</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="M338" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A339" s="5"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="7"/>
+      <c r="F339" s="7"/>
+      <c r="G339" t="s">
+        <v>24</v>
+      </c>
+      <c r="H339" t="s">
+        <v>20</v>
+      </c>
+      <c r="I339" t="s">
+        <v>17</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="M339" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A340" s="5"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="7"/>
+      <c r="F340" s="7"/>
+      <c r="G340" t="s">
+        <v>25</v>
+      </c>
+      <c r="H340" t="s">
+        <v>26</v>
+      </c>
+      <c r="I340" t="s">
+        <v>17</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="M340" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A341" s="5"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="7"/>
+      <c r="F341" s="7"/>
+      <c r="G341" t="s">
+        <v>27</v>
+      </c>
+      <c r="H341" t="s">
+        <v>20</v>
+      </c>
+      <c r="I341" t="s">
+        <v>17</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="M341" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A342" s="5"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="7"/>
+      <c r="F342" s="7"/>
+      <c r="G342" t="s">
+        <v>28</v>
+      </c>
+      <c r="H342" t="s">
+        <v>32</v>
+      </c>
+      <c r="I342" t="s">
+        <v>17</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="M342" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A343" s="5"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="7"/>
+      <c r="F343" s="7"/>
+      <c r="G343" t="s">
+        <v>29</v>
+      </c>
+      <c r="H343" t="s">
+        <v>33</v>
+      </c>
+      <c r="I343" t="s">
+        <v>17</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="M343" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A344" s="5"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="7"/>
+      <c r="F344" s="7"/>
+      <c r="G344" t="s">
+        <v>30</v>
+      </c>
+      <c r="H344" t="s">
+        <v>20</v>
+      </c>
+      <c r="I344" t="s">
+        <v>17</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="M344" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A345" s="5"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="7"/>
+      <c r="F345" s="7"/>
+      <c r="G345" t="s">
+        <v>31</v>
+      </c>
+      <c r="H345" t="s">
+        <v>34</v>
+      </c>
+      <c r="I345" t="s">
+        <v>17</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="M345" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A346" s="5"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="7"/>
+      <c r="F346" s="7"/>
+      <c r="G346" t="s">
+        <v>36</v>
+      </c>
+      <c r="H346" t="s">
+        <v>35</v>
+      </c>
+      <c r="I346" t="s">
+        <v>17</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="M346" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A347" s="5"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="7"/>
+      <c r="F347" s="7"/>
+      <c r="G347" t="s">
+        <v>37</v>
+      </c>
+      <c r="H347" t="s">
+        <v>20</v>
+      </c>
+      <c r="I347" t="s">
+        <v>17</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="M347" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A348" s="5"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="7"/>
+      <c r="F348" s="7"/>
+      <c r="G348" t="s">
+        <v>38</v>
+      </c>
+      <c r="H348" t="s">
+        <v>39</v>
+      </c>
+      <c r="I348" t="s">
+        <v>17</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="M348" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A349" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D349" s="5">
+        <v>32</v>
+      </c>
+      <c r="E349" s="7"/>
+      <c r="F349" s="7"/>
+      <c r="G349" t="s">
+        <v>15</v>
+      </c>
+      <c r="H349" t="s">
+        <v>44</v>
+      </c>
+      <c r="I349" t="s">
+        <v>17</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="M349" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A350" s="5"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="7"/>
+      <c r="F350" s="7"/>
+      <c r="G350" t="s">
+        <v>43</v>
+      </c>
+      <c r="H350" t="s">
+        <v>20</v>
+      </c>
+      <c r="I350" t="s">
+        <v>17</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="M350" t="s">
+        <v>18</v>
+      </c>
+      <c r="P350" s="2"/>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A351" s="5"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="7"/>
+      <c r="F351" s="7"/>
+      <c r="G351" t="s">
+        <v>30</v>
+      </c>
+      <c r="H351" t="s">
+        <v>45</v>
+      </c>
+      <c r="I351" t="s">
+        <v>17</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="M351" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A352" s="5"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="7"/>
+      <c r="F352" s="7"/>
+      <c r="G352" t="s">
+        <v>46</v>
+      </c>
+      <c r="H352" t="s">
+        <v>20</v>
+      </c>
+      <c r="I352" t="s">
+        <v>17</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="M352" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A353" s="5"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="7"/>
+      <c r="F353" s="7"/>
+      <c r="G353" t="s">
+        <v>47</v>
+      </c>
+      <c r="H353" t="s">
+        <v>50</v>
+      </c>
+      <c r="I353" t="s">
+        <v>17</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="M353" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A354" s="5"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="7"/>
+      <c r="F354" s="7"/>
+      <c r="G354" t="s">
+        <v>48</v>
+      </c>
+      <c r="H354" t="s">
+        <v>51</v>
+      </c>
+      <c r="I354" t="s">
+        <v>17</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="M354" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A355" s="5"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="7"/>
+      <c r="F355" s="7"/>
+      <c r="G355" t="s">
+        <v>49</v>
+      </c>
+      <c r="H355" t="s">
+        <v>52</v>
+      </c>
+      <c r="I355" t="s">
+        <v>17</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="M355" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>117</v>
+      </c>
+      <c r="B357" t="s">
+        <v>54</v>
+      </c>
+      <c r="C357" t="s">
+        <v>55</v>
+      </c>
+      <c r="D357" s="3">
+        <v>32</v>
+      </c>
+      <c r="G357" t="s">
+        <v>56</v>
+      </c>
+      <c r="H357" t="s">
+        <v>57</v>
+      </c>
+      <c r="I357" t="s">
+        <v>21</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="M357" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A359" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D359" s="5">
+        <v>32</v>
+      </c>
+      <c r="E359" s="7"/>
+      <c r="F359" s="7"/>
+      <c r="G359" t="s">
+        <v>15</v>
+      </c>
+      <c r="H359" t="s">
+        <v>52</v>
+      </c>
+      <c r="I359" t="s">
+        <v>17</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="M359" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A360" s="5"/>
+      <c r="B360" s="6"/>
+      <c r="C360" s="6"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="7"/>
+      <c r="F360" s="7"/>
+      <c r="G360" t="s">
+        <v>62</v>
+      </c>
+      <c r="H360" t="s">
+        <v>63</v>
+      </c>
+      <c r="I360" t="s">
+        <v>17</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="M360" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A361" s="5"/>
+      <c r="B361" s="6"/>
+      <c r="C361" s="6"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="7"/>
+      <c r="F361" s="7"/>
+      <c r="G361" t="s">
+        <v>64</v>
+      </c>
+      <c r="H361" t="s">
+        <v>20</v>
+      </c>
+      <c r="I361" t="s">
+        <v>17</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="M361" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A362" s="5"/>
+      <c r="B362" s="6"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="7"/>
+      <c r="F362" s="7"/>
+      <c r="G362" t="s">
+        <v>65</v>
+      </c>
+      <c r="H362" t="s">
+        <v>66</v>
+      </c>
+      <c r="I362" t="s">
+        <v>17</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="M362" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A363" s="5"/>
+      <c r="B363" s="6"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="7"/>
+      <c r="F363" s="7"/>
+      <c r="G363" t="s">
+        <v>67</v>
+      </c>
+      <c r="H363" t="s">
+        <v>68</v>
+      </c>
+      <c r="I363" t="s">
+        <v>17</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="M363" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A364" s="5"/>
+      <c r="B364" s="6"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="7"/>
+      <c r="F364" s="7"/>
+      <c r="G364" t="s">
+        <v>69</v>
+      </c>
+      <c r="H364" t="s">
+        <v>20</v>
+      </c>
+      <c r="I364" t="s">
+        <v>17</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="M364" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A365" s="5"/>
+      <c r="B365" s="6"/>
+      <c r="C365" s="6"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="7"/>
+      <c r="F365" s="7"/>
+      <c r="G365" t="s">
+        <v>70</v>
+      </c>
+      <c r="H365" t="s">
+        <v>71</v>
+      </c>
+      <c r="I365" t="s">
+        <v>17</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="M365" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="E25:E31"/>
+  <mergeCells count="240">
+    <mergeCell ref="A356:XFD356"/>
+    <mergeCell ref="A358:XFD358"/>
+    <mergeCell ref="A359:A365"/>
+    <mergeCell ref="B359:B365"/>
+    <mergeCell ref="C359:C365"/>
+    <mergeCell ref="D359:D365"/>
+    <mergeCell ref="E359:E365"/>
+    <mergeCell ref="F359:F365"/>
+    <mergeCell ref="F336:F348"/>
+    <mergeCell ref="A349:A355"/>
+    <mergeCell ref="B349:B355"/>
+    <mergeCell ref="C349:C355"/>
+    <mergeCell ref="D349:D355"/>
+    <mergeCell ref="E349:E355"/>
+    <mergeCell ref="F349:F355"/>
+    <mergeCell ref="A336:A348"/>
+    <mergeCell ref="B336:B348"/>
+    <mergeCell ref="C336:C348"/>
+    <mergeCell ref="D336:D348"/>
+    <mergeCell ref="E336:E348"/>
+    <mergeCell ref="A325:XFD325"/>
+    <mergeCell ref="A327:XFD327"/>
+    <mergeCell ref="A328:A334"/>
+    <mergeCell ref="B328:B334"/>
+    <mergeCell ref="C328:C334"/>
+    <mergeCell ref="D328:D334"/>
+    <mergeCell ref="E328:E334"/>
+    <mergeCell ref="F328:F334"/>
+    <mergeCell ref="F305:F317"/>
+    <mergeCell ref="A318:A324"/>
+    <mergeCell ref="B318:B324"/>
+    <mergeCell ref="C318:C324"/>
+    <mergeCell ref="D318:D324"/>
+    <mergeCell ref="E318:E324"/>
+    <mergeCell ref="F318:F324"/>
+    <mergeCell ref="A305:A317"/>
+    <mergeCell ref="B305:B317"/>
+    <mergeCell ref="C305:C317"/>
+    <mergeCell ref="D305:D317"/>
+    <mergeCell ref="E305:E317"/>
+    <mergeCell ref="A295:XFD295"/>
+    <mergeCell ref="A297:XFD297"/>
+    <mergeCell ref="A298:A304"/>
+    <mergeCell ref="B298:B304"/>
+    <mergeCell ref="C298:C304"/>
+    <mergeCell ref="D298:D304"/>
+    <mergeCell ref="E298:E304"/>
+    <mergeCell ref="F298:F304"/>
+    <mergeCell ref="F275:F287"/>
+    <mergeCell ref="A288:A294"/>
+    <mergeCell ref="B288:B294"/>
+    <mergeCell ref="C288:C294"/>
+    <mergeCell ref="D288:D294"/>
+    <mergeCell ref="E288:E294"/>
+    <mergeCell ref="F288:F294"/>
+    <mergeCell ref="A275:A287"/>
+    <mergeCell ref="B275:B287"/>
+    <mergeCell ref="C275:C287"/>
+    <mergeCell ref="D275:D287"/>
+    <mergeCell ref="E275:E287"/>
+    <mergeCell ref="A265:XFD265"/>
+    <mergeCell ref="A267:XFD267"/>
+    <mergeCell ref="A268:A274"/>
+    <mergeCell ref="B268:B274"/>
+    <mergeCell ref="C268:C274"/>
+    <mergeCell ref="D268:D274"/>
+    <mergeCell ref="E268:E274"/>
+    <mergeCell ref="F268:F274"/>
+    <mergeCell ref="F245:F257"/>
+    <mergeCell ref="A258:A264"/>
+    <mergeCell ref="B258:B264"/>
+    <mergeCell ref="C258:C264"/>
+    <mergeCell ref="D258:D264"/>
+    <mergeCell ref="E258:E264"/>
+    <mergeCell ref="F258:F264"/>
+    <mergeCell ref="A245:A257"/>
+    <mergeCell ref="B245:B257"/>
+    <mergeCell ref="C245:C257"/>
+    <mergeCell ref="D245:D257"/>
+    <mergeCell ref="E245:E257"/>
+    <mergeCell ref="A234:XFD234"/>
+    <mergeCell ref="A236:XFD236"/>
+    <mergeCell ref="A237:A243"/>
+    <mergeCell ref="B237:B243"/>
+    <mergeCell ref="C237:C243"/>
+    <mergeCell ref="D237:D243"/>
+    <mergeCell ref="E237:E243"/>
+    <mergeCell ref="F237:F243"/>
+    <mergeCell ref="F214:F226"/>
+    <mergeCell ref="A227:A233"/>
+    <mergeCell ref="B227:B233"/>
+    <mergeCell ref="C227:C233"/>
+    <mergeCell ref="D227:D233"/>
+    <mergeCell ref="E227:E233"/>
+    <mergeCell ref="F227:F233"/>
+    <mergeCell ref="A214:A226"/>
+    <mergeCell ref="B214:B226"/>
+    <mergeCell ref="C214:C226"/>
+    <mergeCell ref="D214:D226"/>
+    <mergeCell ref="E214:E226"/>
+    <mergeCell ref="A204:XFD204"/>
+    <mergeCell ref="A206:XFD206"/>
+    <mergeCell ref="A207:A213"/>
+    <mergeCell ref="B207:B213"/>
+    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="D207:D213"/>
+    <mergeCell ref="E207:E213"/>
+    <mergeCell ref="F207:F213"/>
+    <mergeCell ref="F184:F196"/>
+    <mergeCell ref="A197:A203"/>
+    <mergeCell ref="B197:B203"/>
+    <mergeCell ref="C197:C203"/>
+    <mergeCell ref="D197:D203"/>
+    <mergeCell ref="E197:E203"/>
+    <mergeCell ref="F197:F203"/>
+    <mergeCell ref="A184:A196"/>
+    <mergeCell ref="B184:B196"/>
+    <mergeCell ref="C184:C196"/>
+    <mergeCell ref="D184:D196"/>
+    <mergeCell ref="E184:E196"/>
+    <mergeCell ref="A174:XFD174"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:A183"/>
+    <mergeCell ref="B177:B183"/>
+    <mergeCell ref="C177:C183"/>
+    <mergeCell ref="D177:D183"/>
+    <mergeCell ref="E177:E183"/>
+    <mergeCell ref="F177:F183"/>
+    <mergeCell ref="F154:F166"/>
+    <mergeCell ref="A167:A173"/>
+    <mergeCell ref="B167:B173"/>
+    <mergeCell ref="C167:C173"/>
+    <mergeCell ref="D167:D173"/>
+    <mergeCell ref="E167:E173"/>
+    <mergeCell ref="F167:F173"/>
+    <mergeCell ref="A154:A166"/>
+    <mergeCell ref="B154:B166"/>
+    <mergeCell ref="C154:C166"/>
+    <mergeCell ref="D154:D166"/>
+    <mergeCell ref="E154:E166"/>
+    <mergeCell ref="A143:XFD143"/>
+    <mergeCell ref="A145:XFD145"/>
+    <mergeCell ref="A146:A152"/>
+    <mergeCell ref="B146:B152"/>
+    <mergeCell ref="C146:C152"/>
+    <mergeCell ref="D146:D152"/>
+    <mergeCell ref="E146:E152"/>
+    <mergeCell ref="F146:F152"/>
+    <mergeCell ref="F123:F135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="D136:D142"/>
+    <mergeCell ref="E136:E142"/>
+    <mergeCell ref="F136:F142"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="C123:C135"/>
+    <mergeCell ref="D123:D135"/>
+    <mergeCell ref="E123:E135"/>
+    <mergeCell ref="A113:XFD113"/>
+    <mergeCell ref="A115:XFD115"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="C116:C122"/>
+    <mergeCell ref="D116:D122"/>
+    <mergeCell ref="E116:E122"/>
+    <mergeCell ref="F116:F122"/>
+    <mergeCell ref="F93:F105"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="D106:D112"/>
+    <mergeCell ref="E106:E112"/>
+    <mergeCell ref="F106:F112"/>
+    <mergeCell ref="A93:A105"/>
+    <mergeCell ref="B93:B105"/>
+    <mergeCell ref="C93:C105"/>
+    <mergeCell ref="D93:D105"/>
+    <mergeCell ref="E93:E105"/>
+    <mergeCell ref="A83:XFD83"/>
+    <mergeCell ref="A85:XFD85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E86:E92"/>
+    <mergeCell ref="F86:F92"/>
+    <mergeCell ref="F63:F75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:B82"/>
+    <mergeCell ref="C76:C82"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="F76:F82"/>
+    <mergeCell ref="A63:A75"/>
+    <mergeCell ref="B63:B75"/>
+    <mergeCell ref="C63:C75"/>
+    <mergeCell ref="D63:D75"/>
+    <mergeCell ref="E63:E75"/>
+    <mergeCell ref="A52:XFD52"/>
+    <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="F32:F44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="E45:E51"/>
+    <mergeCell ref="F45:F51"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="C32:C44"/>
+    <mergeCell ref="D32:D44"/>
+    <mergeCell ref="E32:E44"/>
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="E2:E14"/>
     <mergeCell ref="F2:F14"/>
@@ -1473,6 +9403,14 @@
     <mergeCell ref="D15:D21"/>
     <mergeCell ref="E15:E21"/>
     <mergeCell ref="F15:F21"/>
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="E25:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dp_cc_reg.xlsx
+++ b/dp_cc_reg.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="140">
   <si>
     <t>RegName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>below are registers for the output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CC_SF0_BUNDLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +320,270 @@
   </si>
   <si>
     <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x001c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x002c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x003c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x004c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x005c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x006c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x007c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x008c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x009c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,14 +649,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31:AT31"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C349" sqref="C349:C355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -727,7 +990,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -767,20 +1030,20 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>32</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" t="s">
         <v>15</v>
       </c>
@@ -798,12 +1061,12 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" t="s">
         <v>19</v>
       </c>
@@ -821,12 +1084,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -844,12 +1107,12 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -867,12 +1130,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -890,12 +1153,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" t="s">
         <v>27</v>
       </c>
@@ -913,12 +1176,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" t="s">
         <v>28</v>
       </c>
@@ -936,12 +1199,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" t="s">
         <v>29</v>
       </c>
@@ -959,12 +1222,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" t="s">
         <v>30</v>
       </c>
@@ -982,12 +1245,12 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" t="s">
         <v>31</v>
       </c>
@@ -1005,12 +1268,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" t="s">
         <v>36</v>
       </c>
@@ -1028,12 +1291,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" t="s">
         <v>37</v>
       </c>
@@ -1051,12 +1314,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" t="s">
         <v>38</v>
       </c>
@@ -1074,20 +1337,20 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>32</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" t="s">
         <v>15</v>
       </c>
@@ -1105,12 +1368,12 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" t="s">
         <v>43</v>
       </c>
@@ -1129,12 +1392,12 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" t="s">
         <v>30</v>
       </c>
@@ -1152,12 +1415,12 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
       <c r="G18" t="s">
         <v>46</v>
       </c>
@@ -1175,12 +1438,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
       <c r="G19" t="s">
         <v>47</v>
       </c>
@@ -1198,12 +1461,12 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" t="s">
         <v>48</v>
       </c>
@@ -1221,12 +1484,12 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" t="s">
         <v>49</v>
       </c>
@@ -1243,29 +1506,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>53</v>
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
         <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
       </c>
       <c r="D23" s="1">
         <v>32</v>
       </c>
       <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
         <v>56</v>
-      </c>
-      <c r="H23" t="s">
-        <v>57</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
@@ -1277,26 +1540,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>53</v>
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>58</v>
+      <c r="A25" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>32</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" t="s">
         <v>15</v>
       </c>
@@ -1314,18 +1577,18 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
         <v>62</v>
       </c>
-      <c r="H26" t="s">
-        <v>63</v>
-      </c>
       <c r="I26" t="s">
         <v>17</v>
       </c>
@@ -1337,14 +1600,14 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
         <v>20</v>
@@ -1360,18 +1623,18 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
         <v>65</v>
       </c>
-      <c r="H28" t="s">
-        <v>66</v>
-      </c>
       <c r="I28" t="s">
         <v>17</v>
       </c>
@@ -1383,18 +1646,18 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
         <v>67</v>
       </c>
-      <c r="H29" t="s">
-        <v>68</v>
-      </c>
       <c r="I29" t="s">
         <v>17</v>
       </c>
@@ -1406,14 +1669,14 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
@@ -1429,18 +1692,18 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
         <v>70</v>
       </c>
-      <c r="H31" t="s">
-        <v>71</v>
-      </c>
       <c r="I31" t="s">
         <v>17</v>
       </c>
@@ -1451,8 +1714,7543 @@
         <v>18</v>
       </c>
     </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5">
+        <v>32</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="5">
+        <v>32</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>18</v>
+      </c>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="3">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="5">
+        <v>32</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="5">
+        <v>32</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="5">
+        <v>32</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>18</v>
+      </c>
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" t="s">
+        <v>50</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" t="s">
+        <v>49</v>
+      </c>
+      <c r="H82" t="s">
+        <v>52</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="M82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="3">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>55</v>
+      </c>
+      <c r="H84" t="s">
+        <v>56</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="5">
+        <v>32</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>52</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" t="s">
+        <v>61</v>
+      </c>
+      <c r="H87" t="s">
+        <v>62</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" t="s">
+        <v>63</v>
+      </c>
+      <c r="H88" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" t="s">
+        <v>64</v>
+      </c>
+      <c r="H89" t="s">
+        <v>65</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" t="s">
+        <v>66</v>
+      </c>
+      <c r="H90" t="s">
+        <v>67</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" t="s">
+        <v>68</v>
+      </c>
+      <c r="H91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" t="s">
+        <v>69</v>
+      </c>
+      <c r="H92" t="s">
+        <v>70</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="5">
+        <v>32</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" t="s">
+        <v>32</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A106" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="5">
+        <v>32</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>44</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>18</v>
+      </c>
+      <c r="P107" s="2"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" t="s">
+        <v>45</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="M109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" t="s">
+        <v>47</v>
+      </c>
+      <c r="H110" t="s">
+        <v>50</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" t="s">
+        <v>48</v>
+      </c>
+      <c r="H111" t="s">
+        <v>51</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" t="s">
+        <v>49</v>
+      </c>
+      <c r="H112" t="s">
+        <v>52</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="3">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>55</v>
+      </c>
+      <c r="H114" t="s">
+        <v>56</v>
+      </c>
+      <c r="I114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="M114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A116" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="5">
+        <v>32</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" t="s">
+        <v>52</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" t="s">
+        <v>61</v>
+      </c>
+      <c r="H117" t="s">
+        <v>62</v>
+      </c>
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" t="s">
+        <v>63</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" t="s">
+        <v>64</v>
+      </c>
+      <c r="H119" t="s">
+        <v>65</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" t="s">
+        <v>66</v>
+      </c>
+      <c r="H120" t="s">
+        <v>67</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="M120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" t="s">
+        <v>68</v>
+      </c>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" t="s">
+        <v>69</v>
+      </c>
+      <c r="H122" t="s">
+        <v>70</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A123" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="5">
+        <v>32</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" t="s">
+        <v>21</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="M124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" t="s">
+        <v>25</v>
+      </c>
+      <c r="H127" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="M128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" t="s">
+        <v>32</v>
+      </c>
+      <c r="I129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" t="s">
+        <v>33</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="M130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" t="s">
+        <v>34</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" t="s">
+        <v>36</v>
+      </c>
+      <c r="H133" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" t="s">
+        <v>37</v>
+      </c>
+      <c r="H134" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" t="s">
+        <v>38</v>
+      </c>
+      <c r="H135" t="s">
+        <v>39</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="M135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A136" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D136" s="5">
+        <v>32</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" t="s">
+        <v>44</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="M136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" t="s">
+        <v>43</v>
+      </c>
+      <c r="H137" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>18</v>
+      </c>
+      <c r="P137" s="2"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" t="s">
+        <v>45</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="M138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" t="s">
+        <v>46</v>
+      </c>
+      <c r="H139" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="M139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" t="s">
+        <v>47</v>
+      </c>
+      <c r="H140" t="s">
+        <v>50</v>
+      </c>
+      <c r="I140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="M140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" t="s">
+        <v>48</v>
+      </c>
+      <c r="H141" t="s">
+        <v>51</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="M141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" t="s">
+        <v>49</v>
+      </c>
+      <c r="H142" t="s">
+        <v>52</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="M142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>88</v>
+      </c>
+      <c r="B144" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" s="3">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s">
+        <v>55</v>
+      </c>
+      <c r="H144" t="s">
+        <v>56</v>
+      </c>
+      <c r="I144" t="s">
+        <v>21</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="M144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A146" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" s="5">
+        <v>32</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
+        <v>52</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="M146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A147" s="5"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" t="s">
+        <v>61</v>
+      </c>
+      <c r="H147" t="s">
+        <v>62</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="M147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A148" s="5"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" t="s">
+        <v>63</v>
+      </c>
+      <c r="H148" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A149" s="5"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" t="s">
+        <v>64</v>
+      </c>
+      <c r="H149" t="s">
+        <v>65</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="M149" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A150" s="5"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" t="s">
+        <v>66</v>
+      </c>
+      <c r="H150" t="s">
+        <v>67</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="M150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A151" s="5"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" t="s">
+        <v>68</v>
+      </c>
+      <c r="H151" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="M151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" t="s">
+        <v>69</v>
+      </c>
+      <c r="H152" t="s">
+        <v>70</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="M152" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A154" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="5">
+        <v>32</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="M154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" t="s">
+        <v>19</v>
+      </c>
+      <c r="H155" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="M155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" t="s">
+        <v>23</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="M156" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" t="s">
+        <v>24</v>
+      </c>
+      <c r="H157" t="s">
+        <v>20</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="M157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158" t="s">
+        <v>26</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="M158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" t="s">
+        <v>27</v>
+      </c>
+      <c r="H159" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="M159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" t="s">
+        <v>28</v>
+      </c>
+      <c r="H160" t="s">
+        <v>32</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="M160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" t="s">
+        <v>29</v>
+      </c>
+      <c r="H161" t="s">
+        <v>33</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="M161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" t="s">
+        <v>30</v>
+      </c>
+      <c r="H162" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="M162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" t="s">
+        <v>31</v>
+      </c>
+      <c r="H163" t="s">
+        <v>34</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="M163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" t="s">
+        <v>36</v>
+      </c>
+      <c r="H164" t="s">
+        <v>35</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="M164" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" t="s">
+        <v>37</v>
+      </c>
+      <c r="H165" t="s">
+        <v>20</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="M165" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" t="s">
+        <v>38</v>
+      </c>
+      <c r="H166" t="s">
+        <v>39</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="M166" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A167" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D167" s="5">
+        <v>32</v>
+      </c>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>44</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="M167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" t="s">
+        <v>43</v>
+      </c>
+      <c r="H168" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="M168" t="s">
+        <v>18</v>
+      </c>
+      <c r="P168" s="2"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169" t="s">
+        <v>45</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="M169" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" t="s">
+        <v>46</v>
+      </c>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="M170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" t="s">
+        <v>47</v>
+      </c>
+      <c r="H171" t="s">
+        <v>50</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="M171" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" t="s">
+        <v>48</v>
+      </c>
+      <c r="H172" t="s">
+        <v>51</v>
+      </c>
+      <c r="I172" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="M172" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" t="s">
+        <v>49</v>
+      </c>
+      <c r="H173" t="s">
+        <v>52</v>
+      </c>
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="M173" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175" t="s">
+        <v>53</v>
+      </c>
+      <c r="C175" t="s">
+        <v>54</v>
+      </c>
+      <c r="D175" s="3">
+        <v>32</v>
+      </c>
+      <c r="G175" t="s">
+        <v>55</v>
+      </c>
+      <c r="H175" t="s">
+        <v>56</v>
+      </c>
+      <c r="I175" t="s">
+        <v>21</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="M175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A177" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177" s="5">
+        <v>32</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" t="s">
+        <v>52</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="M177" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A178" s="5"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" t="s">
+        <v>61</v>
+      </c>
+      <c r="H178" t="s">
+        <v>62</v>
+      </c>
+      <c r="I178" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="M178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A179" s="5"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" t="s">
+        <v>63</v>
+      </c>
+      <c r="H179" t="s">
+        <v>20</v>
+      </c>
+      <c r="I179" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="M179" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A180" s="5"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" t="s">
+        <v>64</v>
+      </c>
+      <c r="H180" t="s">
+        <v>65</v>
+      </c>
+      <c r="I180" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="M180" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A181" s="5"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" t="s">
+        <v>66</v>
+      </c>
+      <c r="H181" t="s">
+        <v>67</v>
+      </c>
+      <c r="I181" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="M181" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A182" s="5"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" t="s">
+        <v>68</v>
+      </c>
+      <c r="H182" t="s">
+        <v>20</v>
+      </c>
+      <c r="I182" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="M182" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A183" s="5"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" t="s">
+        <v>69</v>
+      </c>
+      <c r="H183" t="s">
+        <v>70</v>
+      </c>
+      <c r="I183" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="M183" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A184" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="5">
+        <v>32</v>
+      </c>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" t="s">
+        <v>16</v>
+      </c>
+      <c r="I184" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="M184" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" t="s">
+        <v>19</v>
+      </c>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185" t="s">
+        <v>21</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="M185" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" t="s">
+        <v>22</v>
+      </c>
+      <c r="H186" t="s">
+        <v>23</v>
+      </c>
+      <c r="I186" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="M186" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="M187" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" t="s">
+        <v>26</v>
+      </c>
+      <c r="I188" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="M188" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" t="s">
+        <v>27</v>
+      </c>
+      <c r="H189" t="s">
+        <v>20</v>
+      </c>
+      <c r="I189" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="M189" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" t="s">
+        <v>28</v>
+      </c>
+      <c r="H190" t="s">
+        <v>32</v>
+      </c>
+      <c r="I190" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="M190" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+      <c r="H191" t="s">
+        <v>33</v>
+      </c>
+      <c r="I191" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="M191" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" t="s">
+        <v>20</v>
+      </c>
+      <c r="I192" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="M192" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" t="s">
+        <v>31</v>
+      </c>
+      <c r="H193" t="s">
+        <v>34</v>
+      </c>
+      <c r="I193" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="M193" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" t="s">
+        <v>36</v>
+      </c>
+      <c r="H194" t="s">
+        <v>35</v>
+      </c>
+      <c r="I194" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="M194" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" t="s">
+        <v>37</v>
+      </c>
+      <c r="H195" t="s">
+        <v>20</v>
+      </c>
+      <c r="I195" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="M195" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" t="s">
+        <v>38</v>
+      </c>
+      <c r="H196" t="s">
+        <v>39</v>
+      </c>
+      <c r="I196" t="s">
+        <v>17</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="M196" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A197" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D197" s="5">
+        <v>32</v>
+      </c>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" t="s">
+        <v>44</v>
+      </c>
+      <c r="I197" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="M197" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" t="s">
+        <v>43</v>
+      </c>
+      <c r="H198" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="M198" t="s">
+        <v>18</v>
+      </c>
+      <c r="P198" s="2"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199" t="s">
+        <v>45</v>
+      </c>
+      <c r="I199" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="M199" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" t="s">
+        <v>46</v>
+      </c>
+      <c r="H200" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="M200" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" t="s">
+        <v>47</v>
+      </c>
+      <c r="H201" t="s">
+        <v>50</v>
+      </c>
+      <c r="I201" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="M201" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+      <c r="G202" t="s">
+        <v>48</v>
+      </c>
+      <c r="H202" t="s">
+        <v>51</v>
+      </c>
+      <c r="I202" t="s">
+        <v>17</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="M202" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" t="s">
+        <v>49</v>
+      </c>
+      <c r="H203" t="s">
+        <v>52</v>
+      </c>
+      <c r="I203" t="s">
+        <v>17</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="M203" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>96</v>
+      </c>
+      <c r="B205" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" s="3">
+        <v>32</v>
+      </c>
+      <c r="G205" t="s">
+        <v>55</v>
+      </c>
+      <c r="H205" t="s">
+        <v>56</v>
+      </c>
+      <c r="I205" t="s">
+        <v>21</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="M205" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A207" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D207" s="5">
+        <v>32</v>
+      </c>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207" t="s">
+        <v>52</v>
+      </c>
+      <c r="I207" t="s">
+        <v>17</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="M207" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A208" s="5"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" t="s">
+        <v>61</v>
+      </c>
+      <c r="H208" t="s">
+        <v>62</v>
+      </c>
+      <c r="I208" t="s">
+        <v>17</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="M208" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A209" s="5"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
+      <c r="G209" t="s">
+        <v>63</v>
+      </c>
+      <c r="H209" t="s">
+        <v>20</v>
+      </c>
+      <c r="I209" t="s">
+        <v>17</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="M209" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A210" s="5"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+      <c r="G210" t="s">
+        <v>64</v>
+      </c>
+      <c r="H210" t="s">
+        <v>65</v>
+      </c>
+      <c r="I210" t="s">
+        <v>17</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="M210" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A211" s="5"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" t="s">
+        <v>66</v>
+      </c>
+      <c r="H211" t="s">
+        <v>67</v>
+      </c>
+      <c r="I211" t="s">
+        <v>17</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="M211" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A212" s="5"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
+      <c r="G212" t="s">
+        <v>68</v>
+      </c>
+      <c r="H212" t="s">
+        <v>20</v>
+      </c>
+      <c r="I212" t="s">
+        <v>17</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="M212" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A213" s="5"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" t="s">
+        <v>69</v>
+      </c>
+      <c r="H213" t="s">
+        <v>70</v>
+      </c>
+      <c r="I213" t="s">
+        <v>17</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="M213" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A214" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="5">
+        <v>32</v>
+      </c>
+      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
+      <c r="G214" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" t="s">
+        <v>17</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="M214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
+      <c r="G215" t="s">
+        <v>19</v>
+      </c>
+      <c r="H215" t="s">
+        <v>20</v>
+      </c>
+      <c r="I215" t="s">
+        <v>21</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="M215" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
+      <c r="G216" t="s">
+        <v>22</v>
+      </c>
+      <c r="H216" t="s">
+        <v>23</v>
+      </c>
+      <c r="I216" t="s">
+        <v>17</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="M216" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" t="s">
+        <v>24</v>
+      </c>
+      <c r="H217" t="s">
+        <v>20</v>
+      </c>
+      <c r="I217" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="M217" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
+      <c r="G218" t="s">
+        <v>25</v>
+      </c>
+      <c r="H218" t="s">
+        <v>26</v>
+      </c>
+      <c r="I218" t="s">
+        <v>17</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="M218" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
+      <c r="G219" t="s">
+        <v>27</v>
+      </c>
+      <c r="H219" t="s">
+        <v>20</v>
+      </c>
+      <c r="I219" t="s">
+        <v>17</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="M219" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" t="s">
+        <v>28</v>
+      </c>
+      <c r="H220" t="s">
+        <v>32</v>
+      </c>
+      <c r="I220" t="s">
+        <v>17</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="M220" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" t="s">
+        <v>29</v>
+      </c>
+      <c r="H221" t="s">
+        <v>33</v>
+      </c>
+      <c r="I221" t="s">
+        <v>17</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="M221" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" t="s">
+        <v>30</v>
+      </c>
+      <c r="H222" t="s">
+        <v>20</v>
+      </c>
+      <c r="I222" t="s">
+        <v>17</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="M222" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
+      <c r="G223" t="s">
+        <v>31</v>
+      </c>
+      <c r="H223" t="s">
+        <v>34</v>
+      </c>
+      <c r="I223" t="s">
+        <v>17</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="M223" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
+      <c r="G224" t="s">
+        <v>36</v>
+      </c>
+      <c r="H224" t="s">
+        <v>35</v>
+      </c>
+      <c r="I224" t="s">
+        <v>17</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="M224" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" t="s">
+        <v>37</v>
+      </c>
+      <c r="H225" t="s">
+        <v>20</v>
+      </c>
+      <c r="I225" t="s">
+        <v>17</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="M225" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" t="s">
+        <v>38</v>
+      </c>
+      <c r="H226" t="s">
+        <v>39</v>
+      </c>
+      <c r="I226" t="s">
+        <v>17</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="M226" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A227" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D227" s="5">
+        <v>32</v>
+      </c>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+      <c r="G227" t="s">
+        <v>15</v>
+      </c>
+      <c r="H227" t="s">
+        <v>44</v>
+      </c>
+      <c r="I227" t="s">
+        <v>17</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="M227" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" t="s">
+        <v>43</v>
+      </c>
+      <c r="H228" t="s">
+        <v>20</v>
+      </c>
+      <c r="I228" t="s">
+        <v>17</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="M228" t="s">
+        <v>18</v>
+      </c>
+      <c r="P228" s="2"/>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" t="s">
+        <v>30</v>
+      </c>
+      <c r="H229" t="s">
+        <v>45</v>
+      </c>
+      <c r="I229" t="s">
+        <v>17</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="M229" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" t="s">
+        <v>46</v>
+      </c>
+      <c r="H230" t="s">
+        <v>20</v>
+      </c>
+      <c r="I230" t="s">
+        <v>17</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="M230" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
+      <c r="G231" t="s">
+        <v>47</v>
+      </c>
+      <c r="H231" t="s">
+        <v>50</v>
+      </c>
+      <c r="I231" t="s">
+        <v>17</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="M231" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" t="s">
+        <v>48</v>
+      </c>
+      <c r="H232" t="s">
+        <v>51</v>
+      </c>
+      <c r="I232" t="s">
+        <v>17</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="M232" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" t="s">
+        <v>49</v>
+      </c>
+      <c r="H233" t="s">
+        <v>52</v>
+      </c>
+      <c r="I233" t="s">
+        <v>17</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="M233" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>100</v>
+      </c>
+      <c r="B235" t="s">
+        <v>53</v>
+      </c>
+      <c r="C235" t="s">
+        <v>54</v>
+      </c>
+      <c r="D235" s="3">
+        <v>32</v>
+      </c>
+      <c r="G235" t="s">
+        <v>55</v>
+      </c>
+      <c r="H235" t="s">
+        <v>56</v>
+      </c>
+      <c r="I235" t="s">
+        <v>21</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="M235" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A237" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D237" s="5">
+        <v>32</v>
+      </c>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
+      <c r="G237" t="s">
+        <v>15</v>
+      </c>
+      <c r="H237" t="s">
+        <v>52</v>
+      </c>
+      <c r="I237" t="s">
+        <v>17</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="M237" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A238" s="5"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
+      <c r="G238" t="s">
+        <v>61</v>
+      </c>
+      <c r="H238" t="s">
+        <v>62</v>
+      </c>
+      <c r="I238" t="s">
+        <v>17</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="M238" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A239" s="5"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+      <c r="G239" t="s">
+        <v>63</v>
+      </c>
+      <c r="H239" t="s">
+        <v>20</v>
+      </c>
+      <c r="I239" t="s">
+        <v>17</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="M239" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A240" s="5"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" t="s">
+        <v>64</v>
+      </c>
+      <c r="H240" t="s">
+        <v>65</v>
+      </c>
+      <c r="I240" t="s">
+        <v>17</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="M240" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A241" s="5"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" t="s">
+        <v>66</v>
+      </c>
+      <c r="H241" t="s">
+        <v>67</v>
+      </c>
+      <c r="I241" t="s">
+        <v>17</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="M241" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A242" s="5"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" t="s">
+        <v>68</v>
+      </c>
+      <c r="H242" t="s">
+        <v>20</v>
+      </c>
+      <c r="I242" t="s">
+        <v>17</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="M242" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A243" s="5"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" t="s">
+        <v>69</v>
+      </c>
+      <c r="H243" t="s">
+        <v>70</v>
+      </c>
+      <c r="I243" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="M243" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A245" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245" s="5">
+        <v>32</v>
+      </c>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245" t="s">
+        <v>16</v>
+      </c>
+      <c r="I245" t="s">
+        <v>17</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="M245" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A246" s="5"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+      <c r="G246" t="s">
+        <v>19</v>
+      </c>
+      <c r="H246" t="s">
+        <v>20</v>
+      </c>
+      <c r="I246" t="s">
+        <v>21</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="M246" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="7"/>
+      <c r="G247" t="s">
+        <v>22</v>
+      </c>
+      <c r="H247" t="s">
+        <v>23</v>
+      </c>
+      <c r="I247" t="s">
+        <v>17</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="M247" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
+      <c r="G248" t="s">
+        <v>24</v>
+      </c>
+      <c r="H248" t="s">
+        <v>20</v>
+      </c>
+      <c r="I248" t="s">
+        <v>17</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="M248" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
+      <c r="G249" t="s">
+        <v>25</v>
+      </c>
+      <c r="H249" t="s">
+        <v>26</v>
+      </c>
+      <c r="I249" t="s">
+        <v>17</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="M249" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" t="s">
+        <v>27</v>
+      </c>
+      <c r="H250" t="s">
+        <v>20</v>
+      </c>
+      <c r="I250" t="s">
+        <v>17</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="M250" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A251" s="5"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" t="s">
+        <v>28</v>
+      </c>
+      <c r="H251" t="s">
+        <v>32</v>
+      </c>
+      <c r="I251" t="s">
+        <v>17</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="M251" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A252" s="5"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
+      <c r="G252" t="s">
+        <v>29</v>
+      </c>
+      <c r="H252" t="s">
+        <v>33</v>
+      </c>
+      <c r="I252" t="s">
+        <v>17</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="M252" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A253" s="5"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+      <c r="G253" t="s">
+        <v>30</v>
+      </c>
+      <c r="H253" t="s">
+        <v>20</v>
+      </c>
+      <c r="I253" t="s">
+        <v>17</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="M253" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" t="s">
+        <v>31</v>
+      </c>
+      <c r="H254" t="s">
+        <v>34</v>
+      </c>
+      <c r="I254" t="s">
+        <v>17</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="M254" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
+      <c r="G255" t="s">
+        <v>36</v>
+      </c>
+      <c r="H255" t="s">
+        <v>35</v>
+      </c>
+      <c r="I255" t="s">
+        <v>17</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="M255" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" t="s">
+        <v>37</v>
+      </c>
+      <c r="H256" t="s">
+        <v>20</v>
+      </c>
+      <c r="I256" t="s">
+        <v>17</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="M256" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" t="s">
+        <v>38</v>
+      </c>
+      <c r="H257" t="s">
+        <v>39</v>
+      </c>
+      <c r="I257" t="s">
+        <v>17</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="M257" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A258" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D258" s="5">
+        <v>32</v>
+      </c>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258" t="s">
+        <v>44</v>
+      </c>
+      <c r="I258" t="s">
+        <v>17</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="M258" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" t="s">
+        <v>43</v>
+      </c>
+      <c r="H259" t="s">
+        <v>20</v>
+      </c>
+      <c r="I259" t="s">
+        <v>17</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="M259" t="s">
+        <v>18</v>
+      </c>
+      <c r="P259" s="2"/>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
+      <c r="G260" t="s">
+        <v>30</v>
+      </c>
+      <c r="H260" t="s">
+        <v>45</v>
+      </c>
+      <c r="I260" t="s">
+        <v>17</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="M260" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
+      <c r="G261" t="s">
+        <v>46</v>
+      </c>
+      <c r="H261" t="s">
+        <v>20</v>
+      </c>
+      <c r="I261" t="s">
+        <v>17</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="M261" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" t="s">
+        <v>47</v>
+      </c>
+      <c r="H262" t="s">
+        <v>50</v>
+      </c>
+      <c r="I262" t="s">
+        <v>17</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="M262" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" t="s">
+        <v>48</v>
+      </c>
+      <c r="H263" t="s">
+        <v>51</v>
+      </c>
+      <c r="I263" t="s">
+        <v>17</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="M263" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
+      <c r="G264" t="s">
+        <v>49</v>
+      </c>
+      <c r="H264" t="s">
+        <v>52</v>
+      </c>
+      <c r="I264" t="s">
+        <v>17</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="M264" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>104</v>
+      </c>
+      <c r="B266" t="s">
+        <v>53</v>
+      </c>
+      <c r="C266" t="s">
+        <v>54</v>
+      </c>
+      <c r="D266" s="3">
+        <v>32</v>
+      </c>
+      <c r="G266" t="s">
+        <v>55</v>
+      </c>
+      <c r="H266" t="s">
+        <v>56</v>
+      </c>
+      <c r="I266" t="s">
+        <v>21</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="M266" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A268" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D268" s="5">
+        <v>32</v>
+      </c>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+      <c r="G268" t="s">
+        <v>15</v>
+      </c>
+      <c r="H268" t="s">
+        <v>52</v>
+      </c>
+      <c r="I268" t="s">
+        <v>17</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="M268" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A269" s="5"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" t="s">
+        <v>61</v>
+      </c>
+      <c r="H269" t="s">
+        <v>62</v>
+      </c>
+      <c r="I269" t="s">
+        <v>17</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="M269" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A270" s="5"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" t="s">
+        <v>63</v>
+      </c>
+      <c r="H270" t="s">
+        <v>20</v>
+      </c>
+      <c r="I270" t="s">
+        <v>17</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="M270" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A271" s="5"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" t="s">
+        <v>64</v>
+      </c>
+      <c r="H271" t="s">
+        <v>65</v>
+      </c>
+      <c r="I271" t="s">
+        <v>17</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="M271" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A272" s="5"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
+      <c r="G272" t="s">
+        <v>66</v>
+      </c>
+      <c r="H272" t="s">
+        <v>67</v>
+      </c>
+      <c r="I272" t="s">
+        <v>17</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="M272" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A273" s="5"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
+      <c r="G273" t="s">
+        <v>68</v>
+      </c>
+      <c r="H273" t="s">
+        <v>20</v>
+      </c>
+      <c r="I273" t="s">
+        <v>17</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="M273" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A274" s="5"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
+      <c r="G274" t="s">
+        <v>69</v>
+      </c>
+      <c r="H274" t="s">
+        <v>70</v>
+      </c>
+      <c r="I274" t="s">
+        <v>17</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="M274" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A275" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="5">
+        <v>32</v>
+      </c>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" t="s">
+        <v>15</v>
+      </c>
+      <c r="H275" t="s">
+        <v>16</v>
+      </c>
+      <c r="I275" t="s">
+        <v>17</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="M275" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" t="s">
+        <v>19</v>
+      </c>
+      <c r="H276" t="s">
+        <v>20</v>
+      </c>
+      <c r="I276" t="s">
+        <v>21</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="M276" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
+      <c r="G277" t="s">
+        <v>22</v>
+      </c>
+      <c r="H277" t="s">
+        <v>23</v>
+      </c>
+      <c r="I277" t="s">
+        <v>17</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="M277" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
+      <c r="G278" t="s">
+        <v>24</v>
+      </c>
+      <c r="H278" t="s">
+        <v>20</v>
+      </c>
+      <c r="I278" t="s">
+        <v>17</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="M278" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="7"/>
+      <c r="G279" t="s">
+        <v>25</v>
+      </c>
+      <c r="H279" t="s">
+        <v>26</v>
+      </c>
+      <c r="I279" t="s">
+        <v>17</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="M279" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A280" s="5"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
+      <c r="G280" t="s">
+        <v>27</v>
+      </c>
+      <c r="H280" t="s">
+        <v>20</v>
+      </c>
+      <c r="I280" t="s">
+        <v>17</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="M280" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="7"/>
+      <c r="G281" t="s">
+        <v>28</v>
+      </c>
+      <c r="H281" t="s">
+        <v>32</v>
+      </c>
+      <c r="I281" t="s">
+        <v>17</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="M281" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A282" s="5"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
+      <c r="G282" t="s">
+        <v>29</v>
+      </c>
+      <c r="H282" t="s">
+        <v>33</v>
+      </c>
+      <c r="I282" t="s">
+        <v>17</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="M282" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A283" s="5"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+      <c r="G283" t="s">
+        <v>30</v>
+      </c>
+      <c r="H283" t="s">
+        <v>20</v>
+      </c>
+      <c r="I283" t="s">
+        <v>17</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="M283" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A284" s="5"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+      <c r="G284" t="s">
+        <v>31</v>
+      </c>
+      <c r="H284" t="s">
+        <v>34</v>
+      </c>
+      <c r="I284" t="s">
+        <v>17</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="M284" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="7"/>
+      <c r="G285" t="s">
+        <v>36</v>
+      </c>
+      <c r="H285" t="s">
+        <v>35</v>
+      </c>
+      <c r="I285" t="s">
+        <v>17</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="M285" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A286" s="5"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+      <c r="G286" t="s">
+        <v>37</v>
+      </c>
+      <c r="H286" t="s">
+        <v>20</v>
+      </c>
+      <c r="I286" t="s">
+        <v>17</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="M286" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A287" s="5"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
+      <c r="G287" t="s">
+        <v>38</v>
+      </c>
+      <c r="H287" t="s">
+        <v>39</v>
+      </c>
+      <c r="I287" t="s">
+        <v>17</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="M287" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A288" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D288" s="5">
+        <v>32</v>
+      </c>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
+      <c r="G288" t="s">
+        <v>15</v>
+      </c>
+      <c r="H288" t="s">
+        <v>44</v>
+      </c>
+      <c r="I288" t="s">
+        <v>17</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="M288" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A289" s="5"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
+      <c r="G289" t="s">
+        <v>43</v>
+      </c>
+      <c r="H289" t="s">
+        <v>20</v>
+      </c>
+      <c r="I289" t="s">
+        <v>17</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="M289" t="s">
+        <v>18</v>
+      </c>
+      <c r="P289" s="2"/>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
+      <c r="G290" t="s">
+        <v>30</v>
+      </c>
+      <c r="H290" t="s">
+        <v>45</v>
+      </c>
+      <c r="I290" t="s">
+        <v>17</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="M290" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="7"/>
+      <c r="G291" t="s">
+        <v>46</v>
+      </c>
+      <c r="H291" t="s">
+        <v>20</v>
+      </c>
+      <c r="I291" t="s">
+        <v>17</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="M291" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A292" s="5"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
+      <c r="G292" t="s">
+        <v>47</v>
+      </c>
+      <c r="H292" t="s">
+        <v>50</v>
+      </c>
+      <c r="I292" t="s">
+        <v>17</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="M292" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A293" s="5"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="7"/>
+      <c r="G293" t="s">
+        <v>48</v>
+      </c>
+      <c r="H293" t="s">
+        <v>51</v>
+      </c>
+      <c r="I293" t="s">
+        <v>17</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="M293" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A294" s="5"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" t="s">
+        <v>49</v>
+      </c>
+      <c r="H294" t="s">
+        <v>52</v>
+      </c>
+      <c r="I294" t="s">
+        <v>17</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="M294" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
+        <v>108</v>
+      </c>
+      <c r="B296" t="s">
+        <v>53</v>
+      </c>
+      <c r="C296" t="s">
+        <v>54</v>
+      </c>
+      <c r="D296" s="3">
+        <v>32</v>
+      </c>
+      <c r="G296" t="s">
+        <v>55</v>
+      </c>
+      <c r="H296" t="s">
+        <v>56</v>
+      </c>
+      <c r="I296" t="s">
+        <v>21</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="M296" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A298" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D298" s="5">
+        <v>32</v>
+      </c>
+      <c r="E298" s="7"/>
+      <c r="F298" s="7"/>
+      <c r="G298" t="s">
+        <v>15</v>
+      </c>
+      <c r="H298" t="s">
+        <v>52</v>
+      </c>
+      <c r="I298" t="s">
+        <v>17</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="M298" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A299" s="5"/>
+      <c r="B299" s="6"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="7"/>
+      <c r="F299" s="7"/>
+      <c r="G299" t="s">
+        <v>61</v>
+      </c>
+      <c r="H299" t="s">
+        <v>62</v>
+      </c>
+      <c r="I299" t="s">
+        <v>17</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="M299" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A300" s="5"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="7"/>
+      <c r="F300" s="7"/>
+      <c r="G300" t="s">
+        <v>63</v>
+      </c>
+      <c r="H300" t="s">
+        <v>20</v>
+      </c>
+      <c r="I300" t="s">
+        <v>17</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="M300" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A301" s="5"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="7"/>
+      <c r="F301" s="7"/>
+      <c r="G301" t="s">
+        <v>64</v>
+      </c>
+      <c r="H301" t="s">
+        <v>65</v>
+      </c>
+      <c r="I301" t="s">
+        <v>17</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="M301" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A302" s="5"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="7"/>
+      <c r="G302" t="s">
+        <v>66</v>
+      </c>
+      <c r="H302" t="s">
+        <v>67</v>
+      </c>
+      <c r="I302" t="s">
+        <v>17</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="M302" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A303" s="5"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="7"/>
+      <c r="F303" s="7"/>
+      <c r="G303" t="s">
+        <v>68</v>
+      </c>
+      <c r="H303" t="s">
+        <v>20</v>
+      </c>
+      <c r="I303" t="s">
+        <v>17</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="M303" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A304" s="5"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="7"/>
+      <c r="F304" s="7"/>
+      <c r="G304" t="s">
+        <v>69</v>
+      </c>
+      <c r="H304" t="s">
+        <v>70</v>
+      </c>
+      <c r="I304" t="s">
+        <v>17</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="M304" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A305" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" s="5">
+        <v>32</v>
+      </c>
+      <c r="E305" s="7"/>
+      <c r="F305" s="7"/>
+      <c r="G305" t="s">
+        <v>15</v>
+      </c>
+      <c r="H305" t="s">
+        <v>16</v>
+      </c>
+      <c r="I305" t="s">
+        <v>17</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="M305" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A306" s="5"/>
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="7"/>
+      <c r="F306" s="7"/>
+      <c r="G306" t="s">
+        <v>19</v>
+      </c>
+      <c r="H306" t="s">
+        <v>20</v>
+      </c>
+      <c r="I306" t="s">
+        <v>21</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="M306" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A307" s="5"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
+      <c r="G307" t="s">
+        <v>22</v>
+      </c>
+      <c r="H307" t="s">
+        <v>23</v>
+      </c>
+      <c r="I307" t="s">
+        <v>17</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="M307" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A308" s="5"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
+      <c r="G308" t="s">
+        <v>24</v>
+      </c>
+      <c r="H308" t="s">
+        <v>20</v>
+      </c>
+      <c r="I308" t="s">
+        <v>17</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="M308" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A309" s="5"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="7"/>
+      <c r="G309" t="s">
+        <v>25</v>
+      </c>
+      <c r="H309" t="s">
+        <v>26</v>
+      </c>
+      <c r="I309" t="s">
+        <v>17</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="M309" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A310" s="5"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" t="s">
+        <v>27</v>
+      </c>
+      <c r="H310" t="s">
+        <v>20</v>
+      </c>
+      <c r="I310" t="s">
+        <v>17</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="M310" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A311" s="5"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="7"/>
+      <c r="G311" t="s">
+        <v>28</v>
+      </c>
+      <c r="H311" t="s">
+        <v>32</v>
+      </c>
+      <c r="I311" t="s">
+        <v>17</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="M311" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A312" s="5"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="7"/>
+      <c r="F312" s="7"/>
+      <c r="G312" t="s">
+        <v>29</v>
+      </c>
+      <c r="H312" t="s">
+        <v>33</v>
+      </c>
+      <c r="I312" t="s">
+        <v>17</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="M312" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A313" s="5"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="7"/>
+      <c r="F313" s="7"/>
+      <c r="G313" t="s">
+        <v>30</v>
+      </c>
+      <c r="H313" t="s">
+        <v>20</v>
+      </c>
+      <c r="I313" t="s">
+        <v>17</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="M313" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="7"/>
+      <c r="F314" s="7"/>
+      <c r="G314" t="s">
+        <v>31</v>
+      </c>
+      <c r="H314" t="s">
+        <v>34</v>
+      </c>
+      <c r="I314" t="s">
+        <v>17</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="M314" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A315" s="5"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="7"/>
+      <c r="F315" s="7"/>
+      <c r="G315" t="s">
+        <v>36</v>
+      </c>
+      <c r="H315" t="s">
+        <v>35</v>
+      </c>
+      <c r="I315" t="s">
+        <v>17</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="M315" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A316" s="5"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="7"/>
+      <c r="F316" s="7"/>
+      <c r="G316" t="s">
+        <v>37</v>
+      </c>
+      <c r="H316" t="s">
+        <v>20</v>
+      </c>
+      <c r="I316" t="s">
+        <v>17</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="M316" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A317" s="5"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="7"/>
+      <c r="F317" s="7"/>
+      <c r="G317" t="s">
+        <v>38</v>
+      </c>
+      <c r="H317" t="s">
+        <v>39</v>
+      </c>
+      <c r="I317" t="s">
+        <v>17</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="M317" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A318" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D318" s="5">
+        <v>32</v>
+      </c>
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+      <c r="G318" t="s">
+        <v>15</v>
+      </c>
+      <c r="H318" t="s">
+        <v>44</v>
+      </c>
+      <c r="I318" t="s">
+        <v>17</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="M318" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A319" s="5"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="7"/>
+      <c r="F319" s="7"/>
+      <c r="G319" t="s">
+        <v>43</v>
+      </c>
+      <c r="H319" t="s">
+        <v>20</v>
+      </c>
+      <c r="I319" t="s">
+        <v>17</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="M319" t="s">
+        <v>18</v>
+      </c>
+      <c r="P319" s="2"/>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A320" s="5"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="7"/>
+      <c r="F320" s="7"/>
+      <c r="G320" t="s">
+        <v>30</v>
+      </c>
+      <c r="H320" t="s">
+        <v>45</v>
+      </c>
+      <c r="I320" t="s">
+        <v>17</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="M320" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A321" s="5"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="7"/>
+      <c r="F321" s="7"/>
+      <c r="G321" t="s">
+        <v>46</v>
+      </c>
+      <c r="H321" t="s">
+        <v>20</v>
+      </c>
+      <c r="I321" t="s">
+        <v>17</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="M321" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A322" s="5"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="7"/>
+      <c r="F322" s="7"/>
+      <c r="G322" t="s">
+        <v>47</v>
+      </c>
+      <c r="H322" t="s">
+        <v>50</v>
+      </c>
+      <c r="I322" t="s">
+        <v>17</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="M322" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A323" s="5"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="7"/>
+      <c r="F323" s="7"/>
+      <c r="G323" t="s">
+        <v>48</v>
+      </c>
+      <c r="H323" t="s">
+        <v>51</v>
+      </c>
+      <c r="I323" t="s">
+        <v>17</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="M323" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A324" s="5"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="7"/>
+      <c r="F324" s="7"/>
+      <c r="G324" t="s">
+        <v>49</v>
+      </c>
+      <c r="H324" t="s">
+        <v>52</v>
+      </c>
+      <c r="I324" t="s">
+        <v>17</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="M324" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A326" t="s">
+        <v>112</v>
+      </c>
+      <c r="B326" t="s">
+        <v>53</v>
+      </c>
+      <c r="C326" t="s">
+        <v>54</v>
+      </c>
+      <c r="D326" s="3">
+        <v>32</v>
+      </c>
+      <c r="G326" t="s">
+        <v>55</v>
+      </c>
+      <c r="H326" t="s">
+        <v>56</v>
+      </c>
+      <c r="I326" t="s">
+        <v>21</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="M326" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A328" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D328" s="5">
+        <v>32</v>
+      </c>
+      <c r="E328" s="7"/>
+      <c r="F328" s="7"/>
+      <c r="G328" t="s">
+        <v>15</v>
+      </c>
+      <c r="H328" t="s">
+        <v>52</v>
+      </c>
+      <c r="I328" t="s">
+        <v>17</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="M328" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A329" s="5"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="7"/>
+      <c r="G329" t="s">
+        <v>61</v>
+      </c>
+      <c r="H329" t="s">
+        <v>62</v>
+      </c>
+      <c r="I329" t="s">
+        <v>17</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="M329" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A330" s="5"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="7"/>
+      <c r="F330" s="7"/>
+      <c r="G330" t="s">
+        <v>63</v>
+      </c>
+      <c r="H330" t="s">
+        <v>20</v>
+      </c>
+      <c r="I330" t="s">
+        <v>17</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="M330" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A331" s="5"/>
+      <c r="B331" s="6"/>
+      <c r="C331" s="6"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="7"/>
+      <c r="F331" s="7"/>
+      <c r="G331" t="s">
+        <v>64</v>
+      </c>
+      <c r="H331" t="s">
+        <v>65</v>
+      </c>
+      <c r="I331" t="s">
+        <v>17</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="M331" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A332" s="5"/>
+      <c r="B332" s="6"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="7"/>
+      <c r="F332" s="7"/>
+      <c r="G332" t="s">
+        <v>66</v>
+      </c>
+      <c r="H332" t="s">
+        <v>67</v>
+      </c>
+      <c r="I332" t="s">
+        <v>17</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="M332" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A333" s="5"/>
+      <c r="B333" s="6"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="7"/>
+      <c r="F333" s="7"/>
+      <c r="G333" t="s">
+        <v>68</v>
+      </c>
+      <c r="H333" t="s">
+        <v>20</v>
+      </c>
+      <c r="I333" t="s">
+        <v>17</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="M333" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A334" s="5"/>
+      <c r="B334" s="6"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="7"/>
+      <c r="F334" s="7"/>
+      <c r="G334" t="s">
+        <v>69</v>
+      </c>
+      <c r="H334" t="s">
+        <v>70</v>
+      </c>
+      <c r="I334" t="s">
+        <v>17</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="M334" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A336" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D336" s="5">
+        <v>32</v>
+      </c>
+      <c r="E336" s="7"/>
+      <c r="F336" s="7"/>
+      <c r="G336" t="s">
+        <v>15</v>
+      </c>
+      <c r="H336" t="s">
+        <v>16</v>
+      </c>
+      <c r="I336" t="s">
+        <v>17</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="M336" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A337" s="5"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="7"/>
+      <c r="F337" s="7"/>
+      <c r="G337" t="s">
+        <v>19</v>
+      </c>
+      <c r="H337" t="s">
+        <v>20</v>
+      </c>
+      <c r="I337" t="s">
+        <v>21</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="M337" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A338" s="5"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="7"/>
+      <c r="F338" s="7"/>
+      <c r="G338" t="s">
+        <v>22</v>
+      </c>
+      <c r="H338" t="s">
+        <v>23</v>
+      </c>
+      <c r="I338" t="s">
+        <v>17</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="M338" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A339" s="5"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="7"/>
+      <c r="F339" s="7"/>
+      <c r="G339" t="s">
+        <v>24</v>
+      </c>
+      <c r="H339" t="s">
+        <v>20</v>
+      </c>
+      <c r="I339" t="s">
+        <v>17</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="M339" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A340" s="5"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="7"/>
+      <c r="F340" s="7"/>
+      <c r="G340" t="s">
+        <v>25</v>
+      </c>
+      <c r="H340" t="s">
+        <v>26</v>
+      </c>
+      <c r="I340" t="s">
+        <v>17</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="M340" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A341" s="5"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="7"/>
+      <c r="F341" s="7"/>
+      <c r="G341" t="s">
+        <v>27</v>
+      </c>
+      <c r="H341" t="s">
+        <v>20</v>
+      </c>
+      <c r="I341" t="s">
+        <v>17</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="M341" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A342" s="5"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="7"/>
+      <c r="F342" s="7"/>
+      <c r="G342" t="s">
+        <v>28</v>
+      </c>
+      <c r="H342" t="s">
+        <v>32</v>
+      </c>
+      <c r="I342" t="s">
+        <v>17</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="M342" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A343" s="5"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="7"/>
+      <c r="F343" s="7"/>
+      <c r="G343" t="s">
+        <v>29</v>
+      </c>
+      <c r="H343" t="s">
+        <v>33</v>
+      </c>
+      <c r="I343" t="s">
+        <v>17</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="M343" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A344" s="5"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="7"/>
+      <c r="F344" s="7"/>
+      <c r="G344" t="s">
+        <v>30</v>
+      </c>
+      <c r="H344" t="s">
+        <v>20</v>
+      </c>
+      <c r="I344" t="s">
+        <v>17</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="M344" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A345" s="5"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="7"/>
+      <c r="F345" s="7"/>
+      <c r="G345" t="s">
+        <v>31</v>
+      </c>
+      <c r="H345" t="s">
+        <v>34</v>
+      </c>
+      <c r="I345" t="s">
+        <v>17</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="M345" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A346" s="5"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="7"/>
+      <c r="F346" s="7"/>
+      <c r="G346" t="s">
+        <v>36</v>
+      </c>
+      <c r="H346" t="s">
+        <v>35</v>
+      </c>
+      <c r="I346" t="s">
+        <v>17</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="M346" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A347" s="5"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="7"/>
+      <c r="F347" s="7"/>
+      <c r="G347" t="s">
+        <v>37</v>
+      </c>
+      <c r="H347" t="s">
+        <v>20</v>
+      </c>
+      <c r="I347" t="s">
+        <v>17</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="M347" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A348" s="5"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="7"/>
+      <c r="F348" s="7"/>
+      <c r="G348" t="s">
+        <v>38</v>
+      </c>
+      <c r="H348" t="s">
+        <v>39</v>
+      </c>
+      <c r="I348" t="s">
+        <v>17</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="M348" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A349" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D349" s="5">
+        <v>32</v>
+      </c>
+      <c r="E349" s="7"/>
+      <c r="F349" s="7"/>
+      <c r="G349" t="s">
+        <v>15</v>
+      </c>
+      <c r="H349" t="s">
+        <v>44</v>
+      </c>
+      <c r="I349" t="s">
+        <v>17</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="M349" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A350" s="5"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="7"/>
+      <c r="F350" s="7"/>
+      <c r="G350" t="s">
+        <v>43</v>
+      </c>
+      <c r="H350" t="s">
+        <v>20</v>
+      </c>
+      <c r="I350" t="s">
+        <v>17</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="M350" t="s">
+        <v>18</v>
+      </c>
+      <c r="P350" s="2"/>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A351" s="5"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="7"/>
+      <c r="F351" s="7"/>
+      <c r="G351" t="s">
+        <v>30</v>
+      </c>
+      <c r="H351" t="s">
+        <v>45</v>
+      </c>
+      <c r="I351" t="s">
+        <v>17</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="M351" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A352" s="5"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="7"/>
+      <c r="F352" s="7"/>
+      <c r="G352" t="s">
+        <v>46</v>
+      </c>
+      <c r="H352" t="s">
+        <v>20</v>
+      </c>
+      <c r="I352" t="s">
+        <v>17</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="M352" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A353" s="5"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="7"/>
+      <c r="F353" s="7"/>
+      <c r="G353" t="s">
+        <v>47</v>
+      </c>
+      <c r="H353" t="s">
+        <v>50</v>
+      </c>
+      <c r="I353" t="s">
+        <v>17</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="M353" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A354" s="5"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="7"/>
+      <c r="F354" s="7"/>
+      <c r="G354" t="s">
+        <v>48</v>
+      </c>
+      <c r="H354" t="s">
+        <v>51</v>
+      </c>
+      <c r="I354" t="s">
+        <v>17</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="M354" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A355" s="5"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="7"/>
+      <c r="F355" s="7"/>
+      <c r="G355" t="s">
+        <v>49</v>
+      </c>
+      <c r="H355" t="s">
+        <v>52</v>
+      </c>
+      <c r="I355" t="s">
+        <v>17</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="M355" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>116</v>
+      </c>
+      <c r="B357" t="s">
+        <v>53</v>
+      </c>
+      <c r="C357" t="s">
+        <v>54</v>
+      </c>
+      <c r="D357" s="3">
+        <v>32</v>
+      </c>
+      <c r="G357" t="s">
+        <v>55</v>
+      </c>
+      <c r="H357" t="s">
+        <v>56</v>
+      </c>
+      <c r="I357" t="s">
+        <v>21</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="M357" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A359" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D359" s="5">
+        <v>32</v>
+      </c>
+      <c r="E359" s="7"/>
+      <c r="F359" s="7"/>
+      <c r="G359" t="s">
+        <v>15</v>
+      </c>
+      <c r="H359" t="s">
+        <v>52</v>
+      </c>
+      <c r="I359" t="s">
+        <v>17</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="M359" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A360" s="5"/>
+      <c r="B360" s="6"/>
+      <c r="C360" s="6"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="7"/>
+      <c r="F360" s="7"/>
+      <c r="G360" t="s">
+        <v>61</v>
+      </c>
+      <c r="H360" t="s">
+        <v>62</v>
+      </c>
+      <c r="I360" t="s">
+        <v>17</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="M360" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A361" s="5"/>
+      <c r="B361" s="6"/>
+      <c r="C361" s="6"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="7"/>
+      <c r="F361" s="7"/>
+      <c r="G361" t="s">
+        <v>63</v>
+      </c>
+      <c r="H361" t="s">
+        <v>20</v>
+      </c>
+      <c r="I361" t="s">
+        <v>17</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="M361" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A362" s="5"/>
+      <c r="B362" s="6"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="7"/>
+      <c r="F362" s="7"/>
+      <c r="G362" t="s">
+        <v>64</v>
+      </c>
+      <c r="H362" t="s">
+        <v>65</v>
+      </c>
+      <c r="I362" t="s">
+        <v>17</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="M362" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A363" s="5"/>
+      <c r="B363" s="6"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="7"/>
+      <c r="F363" s="7"/>
+      <c r="G363" t="s">
+        <v>66</v>
+      </c>
+      <c r="H363" t="s">
+        <v>67</v>
+      </c>
+      <c r="I363" t="s">
+        <v>17</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="M363" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A364" s="5"/>
+      <c r="B364" s="6"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="7"/>
+      <c r="F364" s="7"/>
+      <c r="G364" t="s">
+        <v>68</v>
+      </c>
+      <c r="H364" t="s">
+        <v>20</v>
+      </c>
+      <c r="I364" t="s">
+        <v>17</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="M364" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A365" s="5"/>
+      <c r="B365" s="6"/>
+      <c r="C365" s="6"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="7"/>
+      <c r="F365" s="7"/>
+      <c r="G365" t="s">
+        <v>69</v>
+      </c>
+      <c r="H365" t="s">
+        <v>70</v>
+      </c>
+      <c r="I365" t="s">
+        <v>17</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="M365" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="240">
     <mergeCell ref="A22:XFD22"/>
     <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A25:A31"/>
@@ -1473,6 +9271,226 @@
     <mergeCell ref="D15:D21"/>
     <mergeCell ref="E15:E21"/>
     <mergeCell ref="F15:F21"/>
+    <mergeCell ref="A52:XFD52"/>
+    <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="F32:F44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="E45:E51"/>
+    <mergeCell ref="F45:F51"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="C32:C44"/>
+    <mergeCell ref="D32:D44"/>
+    <mergeCell ref="E32:E44"/>
+    <mergeCell ref="A83:XFD83"/>
+    <mergeCell ref="A85:XFD85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E86:E92"/>
+    <mergeCell ref="F86:F92"/>
+    <mergeCell ref="F63:F75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:B82"/>
+    <mergeCell ref="C76:C82"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="F76:F82"/>
+    <mergeCell ref="A63:A75"/>
+    <mergeCell ref="B63:B75"/>
+    <mergeCell ref="C63:C75"/>
+    <mergeCell ref="D63:D75"/>
+    <mergeCell ref="E63:E75"/>
+    <mergeCell ref="A113:XFD113"/>
+    <mergeCell ref="A115:XFD115"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="C116:C122"/>
+    <mergeCell ref="D116:D122"/>
+    <mergeCell ref="E116:E122"/>
+    <mergeCell ref="F116:F122"/>
+    <mergeCell ref="F93:F105"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="D106:D112"/>
+    <mergeCell ref="E106:E112"/>
+    <mergeCell ref="F106:F112"/>
+    <mergeCell ref="A93:A105"/>
+    <mergeCell ref="B93:B105"/>
+    <mergeCell ref="C93:C105"/>
+    <mergeCell ref="D93:D105"/>
+    <mergeCell ref="E93:E105"/>
+    <mergeCell ref="A143:XFD143"/>
+    <mergeCell ref="A145:XFD145"/>
+    <mergeCell ref="A146:A152"/>
+    <mergeCell ref="B146:B152"/>
+    <mergeCell ref="C146:C152"/>
+    <mergeCell ref="D146:D152"/>
+    <mergeCell ref="E146:E152"/>
+    <mergeCell ref="F146:F152"/>
+    <mergeCell ref="F123:F135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="D136:D142"/>
+    <mergeCell ref="E136:E142"/>
+    <mergeCell ref="F136:F142"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="C123:C135"/>
+    <mergeCell ref="D123:D135"/>
+    <mergeCell ref="E123:E135"/>
+    <mergeCell ref="A174:XFD174"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:A183"/>
+    <mergeCell ref="B177:B183"/>
+    <mergeCell ref="C177:C183"/>
+    <mergeCell ref="D177:D183"/>
+    <mergeCell ref="E177:E183"/>
+    <mergeCell ref="F177:F183"/>
+    <mergeCell ref="F154:F166"/>
+    <mergeCell ref="A167:A173"/>
+    <mergeCell ref="B167:B173"/>
+    <mergeCell ref="C167:C173"/>
+    <mergeCell ref="D167:D173"/>
+    <mergeCell ref="E167:E173"/>
+    <mergeCell ref="F167:F173"/>
+    <mergeCell ref="A154:A166"/>
+    <mergeCell ref="B154:B166"/>
+    <mergeCell ref="C154:C166"/>
+    <mergeCell ref="D154:D166"/>
+    <mergeCell ref="E154:E166"/>
+    <mergeCell ref="A204:XFD204"/>
+    <mergeCell ref="A206:XFD206"/>
+    <mergeCell ref="A207:A213"/>
+    <mergeCell ref="B207:B213"/>
+    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="D207:D213"/>
+    <mergeCell ref="E207:E213"/>
+    <mergeCell ref="F207:F213"/>
+    <mergeCell ref="F184:F196"/>
+    <mergeCell ref="A197:A203"/>
+    <mergeCell ref="B197:B203"/>
+    <mergeCell ref="C197:C203"/>
+    <mergeCell ref="D197:D203"/>
+    <mergeCell ref="E197:E203"/>
+    <mergeCell ref="F197:F203"/>
+    <mergeCell ref="A184:A196"/>
+    <mergeCell ref="B184:B196"/>
+    <mergeCell ref="C184:C196"/>
+    <mergeCell ref="D184:D196"/>
+    <mergeCell ref="E184:E196"/>
+    <mergeCell ref="A234:XFD234"/>
+    <mergeCell ref="A236:XFD236"/>
+    <mergeCell ref="A237:A243"/>
+    <mergeCell ref="B237:B243"/>
+    <mergeCell ref="C237:C243"/>
+    <mergeCell ref="D237:D243"/>
+    <mergeCell ref="E237:E243"/>
+    <mergeCell ref="F237:F243"/>
+    <mergeCell ref="F214:F226"/>
+    <mergeCell ref="A227:A233"/>
+    <mergeCell ref="B227:B233"/>
+    <mergeCell ref="C227:C233"/>
+    <mergeCell ref="D227:D233"/>
+    <mergeCell ref="E227:E233"/>
+    <mergeCell ref="F227:F233"/>
+    <mergeCell ref="A214:A226"/>
+    <mergeCell ref="B214:B226"/>
+    <mergeCell ref="C214:C226"/>
+    <mergeCell ref="D214:D226"/>
+    <mergeCell ref="E214:E226"/>
+    <mergeCell ref="A265:XFD265"/>
+    <mergeCell ref="A267:XFD267"/>
+    <mergeCell ref="A268:A274"/>
+    <mergeCell ref="B268:B274"/>
+    <mergeCell ref="C268:C274"/>
+    <mergeCell ref="D268:D274"/>
+    <mergeCell ref="E268:E274"/>
+    <mergeCell ref="F268:F274"/>
+    <mergeCell ref="F245:F257"/>
+    <mergeCell ref="A258:A264"/>
+    <mergeCell ref="B258:B264"/>
+    <mergeCell ref="C258:C264"/>
+    <mergeCell ref="D258:D264"/>
+    <mergeCell ref="E258:E264"/>
+    <mergeCell ref="F258:F264"/>
+    <mergeCell ref="A245:A257"/>
+    <mergeCell ref="B245:B257"/>
+    <mergeCell ref="C245:C257"/>
+    <mergeCell ref="D245:D257"/>
+    <mergeCell ref="E245:E257"/>
+    <mergeCell ref="A295:XFD295"/>
+    <mergeCell ref="A297:XFD297"/>
+    <mergeCell ref="A298:A304"/>
+    <mergeCell ref="B298:B304"/>
+    <mergeCell ref="C298:C304"/>
+    <mergeCell ref="D298:D304"/>
+    <mergeCell ref="E298:E304"/>
+    <mergeCell ref="F298:F304"/>
+    <mergeCell ref="F275:F287"/>
+    <mergeCell ref="A288:A294"/>
+    <mergeCell ref="B288:B294"/>
+    <mergeCell ref="C288:C294"/>
+    <mergeCell ref="D288:D294"/>
+    <mergeCell ref="E288:E294"/>
+    <mergeCell ref="F288:F294"/>
+    <mergeCell ref="A275:A287"/>
+    <mergeCell ref="B275:B287"/>
+    <mergeCell ref="C275:C287"/>
+    <mergeCell ref="D275:D287"/>
+    <mergeCell ref="E275:E287"/>
+    <mergeCell ref="A325:XFD325"/>
+    <mergeCell ref="A327:XFD327"/>
+    <mergeCell ref="A328:A334"/>
+    <mergeCell ref="B328:B334"/>
+    <mergeCell ref="C328:C334"/>
+    <mergeCell ref="D328:D334"/>
+    <mergeCell ref="E328:E334"/>
+    <mergeCell ref="F328:F334"/>
+    <mergeCell ref="F305:F317"/>
+    <mergeCell ref="A318:A324"/>
+    <mergeCell ref="B318:B324"/>
+    <mergeCell ref="C318:C324"/>
+    <mergeCell ref="D318:D324"/>
+    <mergeCell ref="E318:E324"/>
+    <mergeCell ref="F318:F324"/>
+    <mergeCell ref="A305:A317"/>
+    <mergeCell ref="B305:B317"/>
+    <mergeCell ref="C305:C317"/>
+    <mergeCell ref="D305:D317"/>
+    <mergeCell ref="E305:E317"/>
+    <mergeCell ref="A356:XFD356"/>
+    <mergeCell ref="A358:XFD358"/>
+    <mergeCell ref="A359:A365"/>
+    <mergeCell ref="B359:B365"/>
+    <mergeCell ref="C359:C365"/>
+    <mergeCell ref="D359:D365"/>
+    <mergeCell ref="E359:E365"/>
+    <mergeCell ref="F359:F365"/>
+    <mergeCell ref="F336:F348"/>
+    <mergeCell ref="A349:A355"/>
+    <mergeCell ref="B349:B355"/>
+    <mergeCell ref="C349:C355"/>
+    <mergeCell ref="D349:D355"/>
+    <mergeCell ref="E349:E355"/>
+    <mergeCell ref="F349:F355"/>
+    <mergeCell ref="A336:A348"/>
+    <mergeCell ref="B336:B348"/>
+    <mergeCell ref="C336:C348"/>
+    <mergeCell ref="D336:D348"/>
+    <mergeCell ref="E336:E348"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1492,12 +9510,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/dp_cc_reg.xlsx
+++ b/dp_cc_reg.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_clone\small_tools_develop\binary_excel_parse_git\binary_excel_parse\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="139">
   <si>
     <t>RegName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,143 +182,399 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CC_SBF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30:16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfg_done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dem_bypass_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[14:10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9:8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7:4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frm_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbf_idx_diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbf_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_SF0_BUNDLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNNDLE_MODE_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[31:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC_SF1_DMRS_FT_MSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMRS_FT_MSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30:24]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iter_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[23]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[22:20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doppler_ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[19:16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cir_len_ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15:12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotate_factor_ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sf </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x001c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x002c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x003c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x004c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x005c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x006c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x007c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x008c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x009c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00a8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00b8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below are registers for the output22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0x0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC_SBF0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBF0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[30:16]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cfg_done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dem_bypass_en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[14:10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9:8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7:4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3:0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frm_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbf_idx_diff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbf_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>below are registers for the output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC_SF0_BUNDLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNNDLE_MODE_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[31:0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x000c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC_SF1_DMRS_FT_MSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMRS_FT_MSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[30:24]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iter_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[23]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[22:20]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doppler_ft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[19:16]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cir_len_ft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[15:12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[11:0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotate_factor_ft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sf </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,14 +640,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,7 +952,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -706,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31:AT31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -727,7 +981,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -767,20 +1021,20 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>32</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" t="s">
         <v>15</v>
       </c>
@@ -798,12 +1052,12 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" t="s">
         <v>19</v>
       </c>
@@ -821,12 +1075,12 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" t="s">
         <v>22</v>
       </c>
@@ -844,12 +1098,12 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -867,12 +1121,12 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -890,12 +1144,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" t="s">
         <v>27</v>
       </c>
@@ -913,12 +1167,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" t="s">
         <v>28</v>
       </c>
@@ -936,12 +1190,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" t="s">
         <v>29</v>
       </c>
@@ -959,12 +1213,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" t="s">
         <v>30</v>
       </c>
@@ -982,12 +1236,12 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" t="s">
         <v>31</v>
       </c>
@@ -1005,12 +1259,12 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" t="s">
         <v>36</v>
       </c>
@@ -1028,12 +1282,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" t="s">
         <v>37</v>
       </c>
@@ -1051,12 +1305,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" t="s">
         <v>38</v>
       </c>
@@ -1074,25 +1328,25 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>32</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" t="s">
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -1105,14 +1359,14 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
@@ -1129,110 +1383,110 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" t="s">
         <v>30</v>
       </c>
       <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" t="s">
         <v>45</v>
       </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>50</v>
       </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" t="s">
         <v>48</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>51</v>
       </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" t="s">
-        <v>52</v>
-      </c>
       <c r="I21" t="s">
         <v>17</v>
       </c>
@@ -1243,65 +1497,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>53</v>
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="5">
         <v>32</v>
       </c>
-      <c r="G23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="3">
-        <v>32</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" t="s">
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -1314,17 +1542,17 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1337,14 +1565,14 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>20</v>
@@ -1360,17 +1588,17 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1383,17 +1611,17 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -1406,14 +1634,14 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
@@ -1429,30 +1657,7785 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5">
+        <v>32</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="5">
+        <v>32</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>18</v>
+      </c>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="3">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="5">
+        <v>32</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="5">
+        <v>32</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="5">
+        <v>32</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>43</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>18</v>
+      </c>
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>49</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" t="s">
+        <v>48</v>
+      </c>
+      <c r="H82" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="M82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="3">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>54</v>
+      </c>
+      <c r="H84" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="5">
+        <v>32</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H87" t="s">
+        <v>59</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" t="s">
+        <v>60</v>
+      </c>
+      <c r="H88" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" t="s">
+        <v>61</v>
+      </c>
+      <c r="H89" t="s">
+        <v>62</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" t="s">
+        <v>63</v>
+      </c>
+      <c r="H90" t="s">
+        <v>64</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" t="s">
+        <v>65</v>
+      </c>
+      <c r="H91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" t="s">
+        <v>66</v>
+      </c>
+      <c r="H92" t="s">
+        <v>67</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="5">
+        <v>32</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" t="s">
+        <v>32</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A106" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="5">
+        <v>32</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>43</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" t="s">
+        <v>42</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>18</v>
+      </c>
+      <c r="P107" s="2"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" t="s">
+        <v>44</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="M109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>49</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" t="s">
+        <v>47</v>
+      </c>
+      <c r="H111" t="s">
+        <v>50</v>
+      </c>
+      <c r="I111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" t="s">
+        <v>48</v>
+      </c>
+      <c r="H112" t="s">
+        <v>51</v>
+      </c>
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" s="3">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>54</v>
+      </c>
+      <c r="H114" t="s">
+        <v>55</v>
+      </c>
+      <c r="I114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="M114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A116" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" s="5">
+        <v>32</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" t="s">
+        <v>51</v>
+      </c>
+      <c r="I116" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A117" s="5"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" t="s">
+        <v>58</v>
+      </c>
+      <c r="H117" t="s">
+        <v>59</v>
+      </c>
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" t="s">
+        <v>60</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A119" s="5"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" t="s">
+        <v>61</v>
+      </c>
+      <c r="H119" t="s">
+        <v>62</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A120" s="5"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" t="s">
+        <v>63</v>
+      </c>
+      <c r="H120" t="s">
+        <v>64</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="M120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A121" s="5"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" t="s">
+        <v>65</v>
+      </c>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A122" s="5"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" t="s">
+        <v>66</v>
+      </c>
+      <c r="H122" t="s">
+        <v>67</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A123" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="5">
+        <v>32</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" t="s">
+        <v>21</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="M124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" t="s">
+        <v>25</v>
+      </c>
+      <c r="H127" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="M128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" t="s">
+        <v>32</v>
+      </c>
+      <c r="I129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" t="s">
+        <v>33</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="M130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" t="s">
+        <v>34</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" t="s">
+        <v>36</v>
+      </c>
+      <c r="H133" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" t="s">
+        <v>37</v>
+      </c>
+      <c r="H134" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" t="s">
+        <v>38</v>
+      </c>
+      <c r="H135" t="s">
+        <v>39</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="M135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A136" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="5">
+        <v>32</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" t="s">
+        <v>43</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="M136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" t="s">
+        <v>42</v>
+      </c>
+      <c r="H137" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>18</v>
+      </c>
+      <c r="P137" s="2"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" t="s">
+        <v>44</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="M138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" t="s">
+        <v>45</v>
+      </c>
+      <c r="H139" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="M139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" t="s">
+        <v>49</v>
+      </c>
+      <c r="I140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="M140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" t="s">
+        <v>47</v>
+      </c>
+      <c r="H141" t="s">
+        <v>50</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="M141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" t="s">
+        <v>48</v>
+      </c>
+      <c r="H142" t="s">
+        <v>51</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="M142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>85</v>
+      </c>
+      <c r="B144" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" t="s">
+        <v>53</v>
+      </c>
+      <c r="D144" s="3">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s">
+        <v>54</v>
+      </c>
+      <c r="H144" t="s">
+        <v>55</v>
+      </c>
+      <c r="I144" t="s">
+        <v>21</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="M144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A146" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D146" s="5">
+        <v>32</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
+        <v>51</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="M146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A147" s="5"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" t="s">
+        <v>58</v>
+      </c>
+      <c r="H147" t="s">
+        <v>59</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="M147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A148" s="5"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" t="s">
+        <v>60</v>
+      </c>
+      <c r="H148" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A149" s="5"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" t="s">
+        <v>61</v>
+      </c>
+      <c r="H149" t="s">
+        <v>62</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="M149" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A150" s="5"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" t="s">
+        <v>63</v>
+      </c>
+      <c r="H150" t="s">
+        <v>64</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="M150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A151" s="5"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" t="s">
+        <v>65</v>
+      </c>
+      <c r="H151" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="M151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" t="s">
+        <v>66</v>
+      </c>
+      <c r="H152" t="s">
+        <v>67</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="M152" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A154" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="5">
+        <v>32</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="M154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" t="s">
+        <v>19</v>
+      </c>
+      <c r="H155" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="M155" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" t="s">
+        <v>23</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="M156" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" t="s">
+        <v>24</v>
+      </c>
+      <c r="H157" t="s">
+        <v>20</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="M157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" t="s">
+        <v>25</v>
+      </c>
+      <c r="H158" t="s">
+        <v>26</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="M158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" t="s">
+        <v>27</v>
+      </c>
+      <c r="H159" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="M159" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" t="s">
+        <v>28</v>
+      </c>
+      <c r="H160" t="s">
+        <v>32</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="M160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" t="s">
+        <v>29</v>
+      </c>
+      <c r="H161" t="s">
+        <v>33</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="M161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" t="s">
+        <v>30</v>
+      </c>
+      <c r="H162" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="M162" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" t="s">
+        <v>31</v>
+      </c>
+      <c r="H163" t="s">
+        <v>34</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="M163" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" t="s">
+        <v>36</v>
+      </c>
+      <c r="H164" t="s">
+        <v>35</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="M164" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" t="s">
+        <v>37</v>
+      </c>
+      <c r="H165" t="s">
+        <v>20</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="M165" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" t="s">
+        <v>38</v>
+      </c>
+      <c r="H166" t="s">
+        <v>39</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="M166" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A167" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D167" s="5">
+        <v>32</v>
+      </c>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>43</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="M167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" t="s">
+        <v>42</v>
+      </c>
+      <c r="H168" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="M168" t="s">
+        <v>18</v>
+      </c>
+      <c r="P168" s="2"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169" t="s">
+        <v>44</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="M169" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" t="s">
+        <v>45</v>
+      </c>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="M170" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" t="s">
+        <v>46</v>
+      </c>
+      <c r="H171" t="s">
+        <v>49</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="M171" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" t="s">
+        <v>47</v>
+      </c>
+      <c r="H172" t="s">
+        <v>50</v>
+      </c>
+      <c r="I172" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="M172" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" t="s">
+        <v>48</v>
+      </c>
+      <c r="H173" t="s">
+        <v>51</v>
+      </c>
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="M173" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>89</v>
+      </c>
+      <c r="B175" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175" t="s">
+        <v>53</v>
+      </c>
+      <c r="D175" s="3">
+        <v>32</v>
+      </c>
+      <c r="G175" t="s">
+        <v>54</v>
+      </c>
+      <c r="H175" t="s">
+        <v>55</v>
+      </c>
+      <c r="I175" t="s">
+        <v>21</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="M175" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A177" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D177" s="5">
+        <v>32</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" t="s">
+        <v>51</v>
+      </c>
+      <c r="I177" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="M177" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A178" s="5"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" t="s">
+        <v>58</v>
+      </c>
+      <c r="H178" t="s">
+        <v>59</v>
+      </c>
+      <c r="I178" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="M178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A179" s="5"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" t="s">
+        <v>60</v>
+      </c>
+      <c r="H179" t="s">
+        <v>20</v>
+      </c>
+      <c r="I179" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="M179" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A180" s="5"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" t="s">
+        <v>61</v>
+      </c>
+      <c r="H180" t="s">
+        <v>62</v>
+      </c>
+      <c r="I180" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="M180" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A181" s="5"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" t="s">
+        <v>63</v>
+      </c>
+      <c r="H181" t="s">
+        <v>64</v>
+      </c>
+      <c r="I181" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="M181" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A182" s="5"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" t="s">
+        <v>65</v>
+      </c>
+      <c r="H182" t="s">
+        <v>20</v>
+      </c>
+      <c r="I182" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="M182" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A183" s="5"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" t="s">
+        <v>66</v>
+      </c>
+      <c r="H183" t="s">
+        <v>67</v>
+      </c>
+      <c r="I183" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="M183" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A184" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="5">
+        <v>32</v>
+      </c>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" t="s">
+        <v>16</v>
+      </c>
+      <c r="I184" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="M184" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" t="s">
+        <v>19</v>
+      </c>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185" t="s">
+        <v>21</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="M185" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" t="s">
+        <v>22</v>
+      </c>
+      <c r="H186" t="s">
+        <v>23</v>
+      </c>
+      <c r="I186" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="M186" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" t="s">
+        <v>24</v>
+      </c>
+      <c r="H187" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="M187" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" t="s">
+        <v>26</v>
+      </c>
+      <c r="I188" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="M188" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" t="s">
+        <v>27</v>
+      </c>
+      <c r="H189" t="s">
+        <v>20</v>
+      </c>
+      <c r="I189" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="M189" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" t="s">
+        <v>28</v>
+      </c>
+      <c r="H190" t="s">
+        <v>32</v>
+      </c>
+      <c r="I190" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="M190" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+      <c r="H191" t="s">
+        <v>33</v>
+      </c>
+      <c r="I191" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="M191" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" t="s">
+        <v>20</v>
+      </c>
+      <c r="I192" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="M192" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" t="s">
+        <v>31</v>
+      </c>
+      <c r="H193" t="s">
+        <v>34</v>
+      </c>
+      <c r="I193" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="M193" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" t="s">
+        <v>36</v>
+      </c>
+      <c r="H194" t="s">
+        <v>35</v>
+      </c>
+      <c r="I194" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="M194" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" t="s">
+        <v>37</v>
+      </c>
+      <c r="H195" t="s">
+        <v>20</v>
+      </c>
+      <c r="I195" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="M195" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" t="s">
+        <v>38</v>
+      </c>
+      <c r="H196" t="s">
+        <v>39</v>
+      </c>
+      <c r="I196" t="s">
+        <v>17</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="M196" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A197" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" s="5">
+        <v>32</v>
+      </c>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" t="s">
+        <v>43</v>
+      </c>
+      <c r="I197" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="M197" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" t="s">
+        <v>42</v>
+      </c>
+      <c r="H198" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="M198" t="s">
+        <v>18</v>
+      </c>
+      <c r="P198" s="2"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199" t="s">
+        <v>44</v>
+      </c>
+      <c r="I199" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="M199" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" t="s">
+        <v>45</v>
+      </c>
+      <c r="H200" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="M200" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" t="s">
+        <v>46</v>
+      </c>
+      <c r="H201" t="s">
+        <v>49</v>
+      </c>
+      <c r="I201" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="M201" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+      <c r="G202" t="s">
+        <v>47</v>
+      </c>
+      <c r="H202" t="s">
+        <v>50</v>
+      </c>
+      <c r="I202" t="s">
+        <v>17</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="M202" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+      <c r="G203" t="s">
+        <v>48</v>
+      </c>
+      <c r="H203" t="s">
+        <v>51</v>
+      </c>
+      <c r="I203" t="s">
+        <v>17</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="M203" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>93</v>
+      </c>
+      <c r="B205" t="s">
+        <v>52</v>
+      </c>
+      <c r="C205" t="s">
+        <v>53</v>
+      </c>
+      <c r="D205" s="3">
+        <v>32</v>
+      </c>
+      <c r="G205" t="s">
+        <v>54</v>
+      </c>
+      <c r="H205" t="s">
+        <v>55</v>
+      </c>
+      <c r="I205" t="s">
+        <v>21</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="M205" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A207" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D207" s="5">
+        <v>32</v>
+      </c>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207" t="s">
+        <v>51</v>
+      </c>
+      <c r="I207" t="s">
+        <v>17</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="M207" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A208" s="5"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
+      <c r="G208" t="s">
+        <v>58</v>
+      </c>
+      <c r="H208" t="s">
+        <v>59</v>
+      </c>
+      <c r="I208" t="s">
+        <v>17</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="M208" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A209" s="5"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
+      <c r="G209" t="s">
+        <v>60</v>
+      </c>
+      <c r="H209" t="s">
+        <v>20</v>
+      </c>
+      <c r="I209" t="s">
+        <v>17</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="M209" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A210" s="5"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+      <c r="G210" t="s">
+        <v>61</v>
+      </c>
+      <c r="H210" t="s">
+        <v>62</v>
+      </c>
+      <c r="I210" t="s">
+        <v>17</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="M210" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A211" s="5"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" t="s">
+        <v>63</v>
+      </c>
+      <c r="H211" t="s">
+        <v>64</v>
+      </c>
+      <c r="I211" t="s">
+        <v>17</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="M211" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A212" s="5"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
+      <c r="G212" t="s">
+        <v>65</v>
+      </c>
+      <c r="H212" t="s">
+        <v>20</v>
+      </c>
+      <c r="I212" t="s">
+        <v>17</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="M212" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A213" s="5"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" t="s">
+        <v>66</v>
+      </c>
+      <c r="H213" t="s">
+        <v>67</v>
+      </c>
+      <c r="I213" t="s">
+        <v>17</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="M213" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A214" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="5">
+        <v>32</v>
+      </c>
+      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
+      <c r="G214" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" t="s">
+        <v>17</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="M214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
+      <c r="G215" t="s">
+        <v>19</v>
+      </c>
+      <c r="H215" t="s">
+        <v>20</v>
+      </c>
+      <c r="I215" t="s">
+        <v>21</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="M215" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
+      <c r="G216" t="s">
+        <v>22</v>
+      </c>
+      <c r="H216" t="s">
+        <v>23</v>
+      </c>
+      <c r="I216" t="s">
+        <v>17</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="M216" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" t="s">
+        <v>24</v>
+      </c>
+      <c r="H217" t="s">
+        <v>20</v>
+      </c>
+      <c r="I217" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="M217" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
+      <c r="G218" t="s">
+        <v>25</v>
+      </c>
+      <c r="H218" t="s">
+        <v>26</v>
+      </c>
+      <c r="I218" t="s">
+        <v>17</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="M218" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
+      <c r="G219" t="s">
+        <v>27</v>
+      </c>
+      <c r="H219" t="s">
+        <v>20</v>
+      </c>
+      <c r="I219" t="s">
+        <v>17</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="M219" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" t="s">
+        <v>28</v>
+      </c>
+      <c r="H220" t="s">
+        <v>32</v>
+      </c>
+      <c r="I220" t="s">
+        <v>17</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="M220" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" t="s">
+        <v>29</v>
+      </c>
+      <c r="H221" t="s">
+        <v>33</v>
+      </c>
+      <c r="I221" t="s">
+        <v>17</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="M221" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" t="s">
+        <v>30</v>
+      </c>
+      <c r="H222" t="s">
+        <v>20</v>
+      </c>
+      <c r="I222" t="s">
+        <v>17</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="M222" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
+      <c r="G223" t="s">
+        <v>31</v>
+      </c>
+      <c r="H223" t="s">
+        <v>34</v>
+      </c>
+      <c r="I223" t="s">
+        <v>17</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="M223" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
+      <c r="G224" t="s">
+        <v>36</v>
+      </c>
+      <c r="H224" t="s">
+        <v>35</v>
+      </c>
+      <c r="I224" t="s">
+        <v>17</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="M224" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" t="s">
+        <v>37</v>
+      </c>
+      <c r="H225" t="s">
+        <v>20</v>
+      </c>
+      <c r="I225" t="s">
+        <v>17</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="M225" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" t="s">
+        <v>38</v>
+      </c>
+      <c r="H226" t="s">
+        <v>39</v>
+      </c>
+      <c r="I226" t="s">
+        <v>17</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="M226" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A227" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D227" s="5">
+        <v>32</v>
+      </c>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+      <c r="G227" t="s">
+        <v>15</v>
+      </c>
+      <c r="H227" t="s">
+        <v>43</v>
+      </c>
+      <c r="I227" t="s">
+        <v>17</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="M227" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" t="s">
+        <v>42</v>
+      </c>
+      <c r="H228" t="s">
+        <v>20</v>
+      </c>
+      <c r="I228" t="s">
+        <v>17</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="M228" t="s">
+        <v>18</v>
+      </c>
+      <c r="P228" s="2"/>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" t="s">
+        <v>30</v>
+      </c>
+      <c r="H229" t="s">
+        <v>44</v>
+      </c>
+      <c r="I229" t="s">
+        <v>17</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="M229" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" t="s">
+        <v>45</v>
+      </c>
+      <c r="H230" t="s">
+        <v>20</v>
+      </c>
+      <c r="I230" t="s">
+        <v>17</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="M230" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
+      <c r="G231" t="s">
+        <v>46</v>
+      </c>
+      <c r="H231" t="s">
+        <v>49</v>
+      </c>
+      <c r="I231" t="s">
+        <v>17</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="M231" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" t="s">
+        <v>47</v>
+      </c>
+      <c r="H232" t="s">
+        <v>50</v>
+      </c>
+      <c r="I232" t="s">
+        <v>17</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="M232" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" t="s">
+        <v>48</v>
+      </c>
+      <c r="H233" t="s">
+        <v>51</v>
+      </c>
+      <c r="I233" t="s">
+        <v>17</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="M233" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>97</v>
+      </c>
+      <c r="B235" t="s">
+        <v>52</v>
+      </c>
+      <c r="C235" t="s">
+        <v>53</v>
+      </c>
+      <c r="D235" s="3">
+        <v>32</v>
+      </c>
+      <c r="G235" t="s">
+        <v>54</v>
+      </c>
+      <c r="H235" t="s">
+        <v>55</v>
+      </c>
+      <c r="I235" t="s">
+        <v>21</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="M235" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A237" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D237" s="5">
+        <v>32</v>
+      </c>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
+      <c r="G237" t="s">
+        <v>15</v>
+      </c>
+      <c r="H237" t="s">
+        <v>51</v>
+      </c>
+      <c r="I237" t="s">
+        <v>17</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="M237" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A238" s="5"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
+      <c r="G238" t="s">
+        <v>58</v>
+      </c>
+      <c r="H238" t="s">
+        <v>59</v>
+      </c>
+      <c r="I238" t="s">
+        <v>17</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="M238" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A239" s="5"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+      <c r="G239" t="s">
+        <v>60</v>
+      </c>
+      <c r="H239" t="s">
+        <v>20</v>
+      </c>
+      <c r="I239" t="s">
+        <v>17</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="M239" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A240" s="5"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" t="s">
+        <v>61</v>
+      </c>
+      <c r="H240" t="s">
+        <v>62</v>
+      </c>
+      <c r="I240" t="s">
+        <v>17</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="M240" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A241" s="5"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" t="s">
+        <v>63</v>
+      </c>
+      <c r="H241" t="s">
+        <v>64</v>
+      </c>
+      <c r="I241" t="s">
+        <v>17</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="M241" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A242" s="5"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" t="s">
+        <v>65</v>
+      </c>
+      <c r="H242" t="s">
+        <v>20</v>
+      </c>
+      <c r="I242" t="s">
+        <v>17</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="M242" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A243" s="5"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" t="s">
+        <v>66</v>
+      </c>
+      <c r="H243" t="s">
+        <v>67</v>
+      </c>
+      <c r="I243" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="M243" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A245" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245" s="5">
+        <v>32</v>
+      </c>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245" t="s">
+        <v>16</v>
+      </c>
+      <c r="I245" t="s">
+        <v>17</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="M245" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A246" s="5"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+      <c r="G246" t="s">
+        <v>19</v>
+      </c>
+      <c r="H246" t="s">
+        <v>20</v>
+      </c>
+      <c r="I246" t="s">
+        <v>21</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="M246" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="7"/>
+      <c r="G247" t="s">
+        <v>22</v>
+      </c>
+      <c r="H247" t="s">
+        <v>23</v>
+      </c>
+      <c r="I247" t="s">
+        <v>17</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="M247" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
+      <c r="G248" t="s">
+        <v>24</v>
+      </c>
+      <c r="H248" t="s">
+        <v>20</v>
+      </c>
+      <c r="I248" t="s">
+        <v>17</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="M248" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
+      <c r="G249" t="s">
+        <v>25</v>
+      </c>
+      <c r="H249" t="s">
+        <v>26</v>
+      </c>
+      <c r="I249" t="s">
+        <v>17</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="M249" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" t="s">
+        <v>27</v>
+      </c>
+      <c r="H250" t="s">
+        <v>20</v>
+      </c>
+      <c r="I250" t="s">
+        <v>17</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="M250" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A251" s="5"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" t="s">
+        <v>28</v>
+      </c>
+      <c r="H251" t="s">
+        <v>32</v>
+      </c>
+      <c r="I251" t="s">
+        <v>17</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="M251" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A252" s="5"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
+      <c r="G252" t="s">
+        <v>29</v>
+      </c>
+      <c r="H252" t="s">
+        <v>33</v>
+      </c>
+      <c r="I252" t="s">
+        <v>17</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="M252" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A253" s="5"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+      <c r="G253" t="s">
+        <v>30</v>
+      </c>
+      <c r="H253" t="s">
+        <v>20</v>
+      </c>
+      <c r="I253" t="s">
+        <v>17</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="M253" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" t="s">
+        <v>31</v>
+      </c>
+      <c r="H254" t="s">
+        <v>34</v>
+      </c>
+      <c r="I254" t="s">
+        <v>17</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="M254" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
+      <c r="G255" t="s">
+        <v>36</v>
+      </c>
+      <c r="H255" t="s">
+        <v>35</v>
+      </c>
+      <c r="I255" t="s">
+        <v>17</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="M255" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" t="s">
+        <v>37</v>
+      </c>
+      <c r="H256" t="s">
+        <v>20</v>
+      </c>
+      <c r="I256" t="s">
+        <v>17</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="M256" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" t="s">
+        <v>38</v>
+      </c>
+      <c r="H257" t="s">
+        <v>39</v>
+      </c>
+      <c r="I257" t="s">
+        <v>17</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="M257" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A258" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D258" s="5">
+        <v>32</v>
+      </c>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258" t="s">
+        <v>43</v>
+      </c>
+      <c r="I258" t="s">
+        <v>17</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="M258" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" t="s">
+        <v>42</v>
+      </c>
+      <c r="H259" t="s">
+        <v>20</v>
+      </c>
+      <c r="I259" t="s">
+        <v>17</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="M259" t="s">
+        <v>18</v>
+      </c>
+      <c r="P259" s="2"/>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
+      <c r="G260" t="s">
+        <v>30</v>
+      </c>
+      <c r="H260" t="s">
+        <v>44</v>
+      </c>
+      <c r="I260" t="s">
+        <v>17</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="M260" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
+      <c r="G261" t="s">
+        <v>45</v>
+      </c>
+      <c r="H261" t="s">
+        <v>20</v>
+      </c>
+      <c r="I261" t="s">
+        <v>17</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="M261" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" t="s">
+        <v>46</v>
+      </c>
+      <c r="H262" t="s">
+        <v>49</v>
+      </c>
+      <c r="I262" t="s">
+        <v>17</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="M262" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" t="s">
+        <v>47</v>
+      </c>
+      <c r="H263" t="s">
+        <v>50</v>
+      </c>
+      <c r="I263" t="s">
+        <v>17</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="M263" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
+      <c r="G264" t="s">
+        <v>48</v>
+      </c>
+      <c r="H264" t="s">
+        <v>51</v>
+      </c>
+      <c r="I264" t="s">
+        <v>17</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="M264" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>101</v>
+      </c>
+      <c r="B266" t="s">
+        <v>52</v>
+      </c>
+      <c r="C266" t="s">
+        <v>53</v>
+      </c>
+      <c r="D266" s="3">
+        <v>32</v>
+      </c>
+      <c r="G266" t="s">
+        <v>54</v>
+      </c>
+      <c r="H266" t="s">
+        <v>55</v>
+      </c>
+      <c r="I266" t="s">
+        <v>21</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="M266" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A268" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D268" s="5">
+        <v>32</v>
+      </c>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+      <c r="G268" t="s">
+        <v>15</v>
+      </c>
+      <c r="H268" t="s">
+        <v>51</v>
+      </c>
+      <c r="I268" t="s">
+        <v>17</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="M268" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A269" s="5"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" t="s">
+        <v>58</v>
+      </c>
+      <c r="H269" t="s">
+        <v>59</v>
+      </c>
+      <c r="I269" t="s">
+        <v>17</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="M269" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A270" s="5"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" t="s">
+        <v>60</v>
+      </c>
+      <c r="H270" t="s">
+        <v>20</v>
+      </c>
+      <c r="I270" t="s">
+        <v>17</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="M270" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A271" s="5"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" t="s">
+        <v>61</v>
+      </c>
+      <c r="H271" t="s">
+        <v>62</v>
+      </c>
+      <c r="I271" t="s">
+        <v>17</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="M271" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A272" s="5"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
+      <c r="G272" t="s">
+        <v>63</v>
+      </c>
+      <c r="H272" t="s">
+        <v>64</v>
+      </c>
+      <c r="I272" t="s">
+        <v>17</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="M272" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A273" s="5"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
+      <c r="G273" t="s">
+        <v>65</v>
+      </c>
+      <c r="H273" t="s">
+        <v>20</v>
+      </c>
+      <c r="I273" t="s">
+        <v>17</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="M273" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A274" s="5"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
+      <c r="G274" t="s">
+        <v>66</v>
+      </c>
+      <c r="H274" t="s">
+        <v>67</v>
+      </c>
+      <c r="I274" t="s">
+        <v>17</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="M274" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A275" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="5">
+        <v>32</v>
+      </c>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" t="s">
+        <v>15</v>
+      </c>
+      <c r="H275" t="s">
+        <v>16</v>
+      </c>
+      <c r="I275" t="s">
+        <v>17</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="M275" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" t="s">
+        <v>19</v>
+      </c>
+      <c r="H276" t="s">
+        <v>20</v>
+      </c>
+      <c r="I276" t="s">
+        <v>21</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="M276" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
+      <c r="G277" t="s">
+        <v>22</v>
+      </c>
+      <c r="H277" t="s">
+        <v>23</v>
+      </c>
+      <c r="I277" t="s">
+        <v>17</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="M277" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
+      <c r="G278" t="s">
+        <v>24</v>
+      </c>
+      <c r="H278" t="s">
+        <v>20</v>
+      </c>
+      <c r="I278" t="s">
+        <v>17</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="M278" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="7"/>
+      <c r="G279" t="s">
+        <v>25</v>
+      </c>
+      <c r="H279" t="s">
+        <v>26</v>
+      </c>
+      <c r="I279" t="s">
+        <v>17</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="M279" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A280" s="5"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
+      <c r="G280" t="s">
+        <v>27</v>
+      </c>
+      <c r="H280" t="s">
+        <v>20</v>
+      </c>
+      <c r="I280" t="s">
+        <v>17</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="M280" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="7"/>
+      <c r="G281" t="s">
+        <v>28</v>
+      </c>
+      <c r="H281" t="s">
+        <v>32</v>
+      </c>
+      <c r="I281" t="s">
+        <v>17</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="M281" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A282" s="5"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
+      <c r="G282" t="s">
+        <v>29</v>
+      </c>
+      <c r="H282" t="s">
+        <v>33</v>
+      </c>
+      <c r="I282" t="s">
+        <v>17</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="M282" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A283" s="5"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+      <c r="G283" t="s">
+        <v>30</v>
+      </c>
+      <c r="H283" t="s">
+        <v>20</v>
+      </c>
+      <c r="I283" t="s">
+        <v>17</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="M283" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A284" s="5"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+      <c r="G284" t="s">
+        <v>31</v>
+      </c>
+      <c r="H284" t="s">
+        <v>34</v>
+      </c>
+      <c r="I284" t="s">
+        <v>17</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="M284" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="7"/>
+      <c r="G285" t="s">
+        <v>36</v>
+      </c>
+      <c r="H285" t="s">
+        <v>35</v>
+      </c>
+      <c r="I285" t="s">
+        <v>17</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="M285" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A286" s="5"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+      <c r="G286" t="s">
+        <v>37</v>
+      </c>
+      <c r="H286" t="s">
+        <v>20</v>
+      </c>
+      <c r="I286" t="s">
+        <v>17</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="M286" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A287" s="5"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
+      <c r="G287" t="s">
+        <v>38</v>
+      </c>
+      <c r="H287" t="s">
+        <v>39</v>
+      </c>
+      <c r="I287" t="s">
+        <v>17</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="M287" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A288" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D288" s="5">
+        <v>32</v>
+      </c>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
+      <c r="G288" t="s">
+        <v>15</v>
+      </c>
+      <c r="H288" t="s">
+        <v>43</v>
+      </c>
+      <c r="I288" t="s">
+        <v>17</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="M288" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A289" s="5"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
+      <c r="G289" t="s">
+        <v>42</v>
+      </c>
+      <c r="H289" t="s">
+        <v>20</v>
+      </c>
+      <c r="I289" t="s">
+        <v>17</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="M289" t="s">
+        <v>18</v>
+      </c>
+      <c r="P289" s="2"/>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
+      <c r="G290" t="s">
+        <v>30</v>
+      </c>
+      <c r="H290" t="s">
+        <v>44</v>
+      </c>
+      <c r="I290" t="s">
+        <v>17</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="M290" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="7"/>
+      <c r="G291" t="s">
+        <v>45</v>
+      </c>
+      <c r="H291" t="s">
+        <v>20</v>
+      </c>
+      <c r="I291" t="s">
+        <v>17</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="M291" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A292" s="5"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
+      <c r="G292" t="s">
+        <v>46</v>
+      </c>
+      <c r="H292" t="s">
+        <v>49</v>
+      </c>
+      <c r="I292" t="s">
+        <v>17</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="M292" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A293" s="5"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="7"/>
+      <c r="G293" t="s">
+        <v>47</v>
+      </c>
+      <c r="H293" t="s">
+        <v>50</v>
+      </c>
+      <c r="I293" t="s">
+        <v>17</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="M293" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A294" s="5"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" t="s">
+        <v>48</v>
+      </c>
+      <c r="H294" t="s">
+        <v>51</v>
+      </c>
+      <c r="I294" t="s">
+        <v>17</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="M294" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
+        <v>105</v>
+      </c>
+      <c r="B296" t="s">
+        <v>52</v>
+      </c>
+      <c r="C296" t="s">
+        <v>53</v>
+      </c>
+      <c r="D296" s="3">
+        <v>32</v>
+      </c>
+      <c r="G296" t="s">
+        <v>54</v>
+      </c>
+      <c r="H296" t="s">
+        <v>55</v>
+      </c>
+      <c r="I296" t="s">
+        <v>21</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="M296" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A298" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D298" s="5">
+        <v>32</v>
+      </c>
+      <c r="E298" s="7"/>
+      <c r="F298" s="7"/>
+      <c r="G298" t="s">
+        <v>15</v>
+      </c>
+      <c r="H298" t="s">
+        <v>51</v>
+      </c>
+      <c r="I298" t="s">
+        <v>17</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="M298" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A299" s="5"/>
+      <c r="B299" s="6"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="7"/>
+      <c r="F299" s="7"/>
+      <c r="G299" t="s">
+        <v>58</v>
+      </c>
+      <c r="H299" t="s">
+        <v>59</v>
+      </c>
+      <c r="I299" t="s">
+        <v>17</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="M299" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A300" s="5"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="7"/>
+      <c r="F300" s="7"/>
+      <c r="G300" t="s">
+        <v>60</v>
+      </c>
+      <c r="H300" t="s">
+        <v>20</v>
+      </c>
+      <c r="I300" t="s">
+        <v>17</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="M300" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A301" s="5"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="7"/>
+      <c r="F301" s="7"/>
+      <c r="G301" t="s">
+        <v>61</v>
+      </c>
+      <c r="H301" t="s">
+        <v>62</v>
+      </c>
+      <c r="I301" t="s">
+        <v>17</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="M301" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A302" s="5"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="7"/>
+      <c r="G302" t="s">
+        <v>63</v>
+      </c>
+      <c r="H302" t="s">
+        <v>64</v>
+      </c>
+      <c r="I302" t="s">
+        <v>17</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="M302" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A303" s="5"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="7"/>
+      <c r="F303" s="7"/>
+      <c r="G303" t="s">
+        <v>65</v>
+      </c>
+      <c r="H303" t="s">
+        <v>20</v>
+      </c>
+      <c r="I303" t="s">
+        <v>17</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="M303" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A304" s="5"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="7"/>
+      <c r="F304" s="7"/>
+      <c r="G304" t="s">
+        <v>66</v>
+      </c>
+      <c r="H304" t="s">
+        <v>67</v>
+      </c>
+      <c r="I304" t="s">
+        <v>17</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="M304" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A305" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" s="5">
+        <v>32</v>
+      </c>
+      <c r="E305" s="7"/>
+      <c r="F305" s="7"/>
+      <c r="G305" t="s">
+        <v>15</v>
+      </c>
+      <c r="H305" t="s">
+        <v>16</v>
+      </c>
+      <c r="I305" t="s">
+        <v>17</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="M305" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A306" s="5"/>
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
+      <c r="E306" s="7"/>
+      <c r="F306" s="7"/>
+      <c r="G306" t="s">
+        <v>19</v>
+      </c>
+      <c r="H306" t="s">
+        <v>20</v>
+      </c>
+      <c r="I306" t="s">
+        <v>21</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="M306" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A307" s="5"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
+      <c r="G307" t="s">
+        <v>22</v>
+      </c>
+      <c r="H307" t="s">
+        <v>23</v>
+      </c>
+      <c r="I307" t="s">
+        <v>17</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="M307" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A308" s="5"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
+      <c r="G308" t="s">
+        <v>24</v>
+      </c>
+      <c r="H308" t="s">
+        <v>20</v>
+      </c>
+      <c r="I308" t="s">
+        <v>17</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="M308" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A309" s="5"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="7"/>
+      <c r="G309" t="s">
+        <v>25</v>
+      </c>
+      <c r="H309" t="s">
+        <v>26</v>
+      </c>
+      <c r="I309" t="s">
+        <v>17</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="M309" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A310" s="5"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" t="s">
+        <v>27</v>
+      </c>
+      <c r="H310" t="s">
+        <v>20</v>
+      </c>
+      <c r="I310" t="s">
+        <v>17</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="M310" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A311" s="5"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="7"/>
+      <c r="G311" t="s">
+        <v>28</v>
+      </c>
+      <c r="H311" t="s">
+        <v>32</v>
+      </c>
+      <c r="I311" t="s">
+        <v>17</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="M311" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A312" s="5"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="7"/>
+      <c r="F312" s="7"/>
+      <c r="G312" t="s">
+        <v>29</v>
+      </c>
+      <c r="H312" t="s">
+        <v>33</v>
+      </c>
+      <c r="I312" t="s">
+        <v>17</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="M312" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A313" s="5"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="7"/>
+      <c r="F313" s="7"/>
+      <c r="G313" t="s">
+        <v>30</v>
+      </c>
+      <c r="H313" t="s">
+        <v>20</v>
+      </c>
+      <c r="I313" t="s">
+        <v>17</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="M313" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="7"/>
+      <c r="F314" s="7"/>
+      <c r="G314" t="s">
+        <v>31</v>
+      </c>
+      <c r="H314" t="s">
+        <v>34</v>
+      </c>
+      <c r="I314" t="s">
+        <v>17</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="M314" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A315" s="5"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="7"/>
+      <c r="F315" s="7"/>
+      <c r="G315" t="s">
+        <v>36</v>
+      </c>
+      <c r="H315" t="s">
+        <v>35</v>
+      </c>
+      <c r="I315" t="s">
+        <v>17</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="M315" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A316" s="5"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="7"/>
+      <c r="F316" s="7"/>
+      <c r="G316" t="s">
+        <v>37</v>
+      </c>
+      <c r="H316" t="s">
+        <v>20</v>
+      </c>
+      <c r="I316" t="s">
+        <v>17</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="M316" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A317" s="5"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="7"/>
+      <c r="F317" s="7"/>
+      <c r="G317" t="s">
+        <v>38</v>
+      </c>
+      <c r="H317" t="s">
+        <v>39</v>
+      </c>
+      <c r="I317" t="s">
+        <v>17</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="M317" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A318" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D318" s="5">
+        <v>32</v>
+      </c>
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+      <c r="G318" t="s">
+        <v>15</v>
+      </c>
+      <c r="H318" t="s">
+        <v>43</v>
+      </c>
+      <c r="I318" t="s">
+        <v>17</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="M318" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A319" s="5"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="7"/>
+      <c r="F319" s="7"/>
+      <c r="G319" t="s">
+        <v>42</v>
+      </c>
+      <c r="H319" t="s">
+        <v>20</v>
+      </c>
+      <c r="I319" t="s">
+        <v>17</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="M319" t="s">
+        <v>18</v>
+      </c>
+      <c r="P319" s="2"/>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A320" s="5"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="7"/>
+      <c r="F320" s="7"/>
+      <c r="G320" t="s">
+        <v>30</v>
+      </c>
+      <c r="H320" t="s">
+        <v>44</v>
+      </c>
+      <c r="I320" t="s">
+        <v>17</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="M320" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A321" s="5"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="7"/>
+      <c r="F321" s="7"/>
+      <c r="G321" t="s">
+        <v>45</v>
+      </c>
+      <c r="H321" t="s">
+        <v>20</v>
+      </c>
+      <c r="I321" t="s">
+        <v>17</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="M321" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A322" s="5"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="7"/>
+      <c r="F322" s="7"/>
+      <c r="G322" t="s">
+        <v>46</v>
+      </c>
+      <c r="H322" t="s">
+        <v>49</v>
+      </c>
+      <c r="I322" t="s">
+        <v>17</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="M322" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A323" s="5"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="7"/>
+      <c r="F323" s="7"/>
+      <c r="G323" t="s">
+        <v>47</v>
+      </c>
+      <c r="H323" t="s">
+        <v>50</v>
+      </c>
+      <c r="I323" t="s">
+        <v>17</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="M323" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A324" s="5"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="7"/>
+      <c r="F324" s="7"/>
+      <c r="G324" t="s">
+        <v>48</v>
+      </c>
+      <c r="H324" t="s">
+        <v>51</v>
+      </c>
+      <c r="I324" t="s">
+        <v>17</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="M324" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A326" t="s">
+        <v>109</v>
+      </c>
+      <c r="B326" t="s">
+        <v>52</v>
+      </c>
+      <c r="C326" t="s">
+        <v>53</v>
+      </c>
+      <c r="D326" s="3">
+        <v>32</v>
+      </c>
+      <c r="G326" t="s">
+        <v>54</v>
+      </c>
+      <c r="H326" t="s">
+        <v>55</v>
+      </c>
+      <c r="I326" t="s">
+        <v>21</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="M326" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A328" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D328" s="5">
+        <v>32</v>
+      </c>
+      <c r="E328" s="7"/>
+      <c r="F328" s="7"/>
+      <c r="G328" t="s">
+        <v>15</v>
+      </c>
+      <c r="H328" t="s">
+        <v>51</v>
+      </c>
+      <c r="I328" t="s">
+        <v>17</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="M328" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A329" s="5"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="7"/>
+      <c r="G329" t="s">
+        <v>58</v>
+      </c>
+      <c r="H329" t="s">
+        <v>59</v>
+      </c>
+      <c r="I329" t="s">
+        <v>17</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="M329" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A330" s="5"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="7"/>
+      <c r="F330" s="7"/>
+      <c r="G330" t="s">
+        <v>60</v>
+      </c>
+      <c r="H330" t="s">
+        <v>20</v>
+      </c>
+      <c r="I330" t="s">
+        <v>17</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="M330" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A331" s="5"/>
+      <c r="B331" s="6"/>
+      <c r="C331" s="6"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="7"/>
+      <c r="F331" s="7"/>
+      <c r="G331" t="s">
+        <v>61</v>
+      </c>
+      <c r="H331" t="s">
+        <v>62</v>
+      </c>
+      <c r="I331" t="s">
+        <v>17</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="M331" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A332" s="5"/>
+      <c r="B332" s="6"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="7"/>
+      <c r="F332" s="7"/>
+      <c r="G332" t="s">
+        <v>63</v>
+      </c>
+      <c r="H332" t="s">
+        <v>64</v>
+      </c>
+      <c r="I332" t="s">
+        <v>17</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="M332" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A333" s="5"/>
+      <c r="B333" s="6"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="5"/>
+      <c r="E333" s="7"/>
+      <c r="F333" s="7"/>
+      <c r="G333" t="s">
+        <v>65</v>
+      </c>
+      <c r="H333" t="s">
+        <v>20</v>
+      </c>
+      <c r="I333" t="s">
+        <v>17</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="M333" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A334" s="5"/>
+      <c r="B334" s="6"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="7"/>
+      <c r="F334" s="7"/>
+      <c r="G334" t="s">
+        <v>66</v>
+      </c>
+      <c r="H334" t="s">
+        <v>67</v>
+      </c>
+      <c r="I334" t="s">
+        <v>17</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="M334" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A336" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D336" s="5">
+        <v>32</v>
+      </c>
+      <c r="E336" s="7"/>
+      <c r="F336" s="7"/>
+      <c r="G336" t="s">
+        <v>15</v>
+      </c>
+      <c r="H336" t="s">
+        <v>16</v>
+      </c>
+      <c r="I336" t="s">
+        <v>17</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="M336" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A337" s="5"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="7"/>
+      <c r="F337" s="7"/>
+      <c r="G337" t="s">
+        <v>19</v>
+      </c>
+      <c r="H337" t="s">
+        <v>20</v>
+      </c>
+      <c r="I337" t="s">
+        <v>21</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="M337" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A338" s="5"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="7"/>
+      <c r="F338" s="7"/>
+      <c r="G338" t="s">
+        <v>22</v>
+      </c>
+      <c r="H338" t="s">
+        <v>23</v>
+      </c>
+      <c r="I338" t="s">
+        <v>17</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="M338" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A339" s="5"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="7"/>
+      <c r="F339" s="7"/>
+      <c r="G339" t="s">
+        <v>24</v>
+      </c>
+      <c r="H339" t="s">
+        <v>20</v>
+      </c>
+      <c r="I339" t="s">
+        <v>17</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="M339" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A340" s="5"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="7"/>
+      <c r="F340" s="7"/>
+      <c r="G340" t="s">
+        <v>25</v>
+      </c>
+      <c r="H340" t="s">
+        <v>26</v>
+      </c>
+      <c r="I340" t="s">
+        <v>17</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="M340" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A341" s="5"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="7"/>
+      <c r="F341" s="7"/>
+      <c r="G341" t="s">
+        <v>27</v>
+      </c>
+      <c r="H341" t="s">
+        <v>20</v>
+      </c>
+      <c r="I341" t="s">
+        <v>17</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="M341" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A342" s="5"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="7"/>
+      <c r="F342" s="7"/>
+      <c r="G342" t="s">
+        <v>28</v>
+      </c>
+      <c r="H342" t="s">
+        <v>32</v>
+      </c>
+      <c r="I342" t="s">
+        <v>17</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="M342" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A343" s="5"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="7"/>
+      <c r="F343" s="7"/>
+      <c r="G343" t="s">
+        <v>29</v>
+      </c>
+      <c r="H343" t="s">
+        <v>33</v>
+      </c>
+      <c r="I343" t="s">
+        <v>17</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="M343" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A344" s="5"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="7"/>
+      <c r="F344" s="7"/>
+      <c r="G344" t="s">
+        <v>30</v>
+      </c>
+      <c r="H344" t="s">
+        <v>20</v>
+      </c>
+      <c r="I344" t="s">
+        <v>17</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="M344" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A345" s="5"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="7"/>
+      <c r="F345" s="7"/>
+      <c r="G345" t="s">
+        <v>31</v>
+      </c>
+      <c r="H345" t="s">
+        <v>34</v>
+      </c>
+      <c r="I345" t="s">
+        <v>17</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="M345" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A346" s="5"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="7"/>
+      <c r="F346" s="7"/>
+      <c r="G346" t="s">
+        <v>36</v>
+      </c>
+      <c r="H346" t="s">
+        <v>35</v>
+      </c>
+      <c r="I346" t="s">
+        <v>17</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="M346" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A347" s="5"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="7"/>
+      <c r="F347" s="7"/>
+      <c r="G347" t="s">
+        <v>37</v>
+      </c>
+      <c r="H347" t="s">
+        <v>20</v>
+      </c>
+      <c r="I347" t="s">
+        <v>17</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="M347" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A348" s="5"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="7"/>
+      <c r="F348" s="7"/>
+      <c r="G348" t="s">
+        <v>38</v>
+      </c>
+      <c r="H348" t="s">
+        <v>39</v>
+      </c>
+      <c r="I348" t="s">
+        <v>17</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="M348" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A349" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D349" s="5">
+        <v>32</v>
+      </c>
+      <c r="E349" s="7"/>
+      <c r="F349" s="7"/>
+      <c r="G349" t="s">
+        <v>15</v>
+      </c>
+      <c r="H349" t="s">
+        <v>43</v>
+      </c>
+      <c r="I349" t="s">
+        <v>17</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="M349" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A350" s="5"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="7"/>
+      <c r="F350" s="7"/>
+      <c r="G350" t="s">
+        <v>42</v>
+      </c>
+      <c r="H350" t="s">
+        <v>20</v>
+      </c>
+      <c r="I350" t="s">
+        <v>17</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="M350" t="s">
+        <v>18</v>
+      </c>
+      <c r="P350" s="2"/>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A351" s="5"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="7"/>
+      <c r="F351" s="7"/>
+      <c r="G351" t="s">
+        <v>30</v>
+      </c>
+      <c r="H351" t="s">
+        <v>44</v>
+      </c>
+      <c r="I351" t="s">
+        <v>17</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="M351" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A352" s="5"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="7"/>
+      <c r="F352" s="7"/>
+      <c r="G352" t="s">
+        <v>45</v>
+      </c>
+      <c r="H352" t="s">
+        <v>20</v>
+      </c>
+      <c r="I352" t="s">
+        <v>17</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="M352" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A353" s="5"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="7"/>
+      <c r="F353" s="7"/>
+      <c r="G353" t="s">
+        <v>46</v>
+      </c>
+      <c r="H353" t="s">
+        <v>49</v>
+      </c>
+      <c r="I353" t="s">
+        <v>17</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="M353" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A354" s="5"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="7"/>
+      <c r="F354" s="7"/>
+      <c r="G354" t="s">
+        <v>47</v>
+      </c>
+      <c r="H354" t="s">
+        <v>50</v>
+      </c>
+      <c r="I354" t="s">
+        <v>17</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="M354" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A355" s="5"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="7"/>
+      <c r="F355" s="7"/>
+      <c r="G355" t="s">
+        <v>48</v>
+      </c>
+      <c r="H355" t="s">
+        <v>51</v>
+      </c>
+      <c r="I355" t="s">
+        <v>17</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="M355" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>113</v>
+      </c>
+      <c r="B357" t="s">
+        <v>52</v>
+      </c>
+      <c r="C357" t="s">
+        <v>53</v>
+      </c>
+      <c r="D357" s="3">
+        <v>32</v>
+      </c>
+      <c r="G357" t="s">
+        <v>54</v>
+      </c>
+      <c r="H357" t="s">
+        <v>55</v>
+      </c>
+      <c r="I357" t="s">
+        <v>21</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="M357" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A359" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D359" s="5">
+        <v>32</v>
+      </c>
+      <c r="E359" s="7"/>
+      <c r="F359" s="7"/>
+      <c r="G359" t="s">
+        <v>15</v>
+      </c>
+      <c r="H359" t="s">
+        <v>51</v>
+      </c>
+      <c r="I359" t="s">
+        <v>17</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="M359" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A360" s="5"/>
+      <c r="B360" s="6"/>
+      <c r="C360" s="6"/>
+      <c r="D360" s="5"/>
+      <c r="E360" s="7"/>
+      <c r="F360" s="7"/>
+      <c r="G360" t="s">
+        <v>58</v>
+      </c>
+      <c r="H360" t="s">
+        <v>59</v>
+      </c>
+      <c r="I360" t="s">
+        <v>17</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="M360" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A361" s="5"/>
+      <c r="B361" s="6"/>
+      <c r="C361" s="6"/>
+      <c r="D361" s="5"/>
+      <c r="E361" s="7"/>
+      <c r="F361" s="7"/>
+      <c r="G361" t="s">
+        <v>60</v>
+      </c>
+      <c r="H361" t="s">
+        <v>20</v>
+      </c>
+      <c r="I361" t="s">
+        <v>17</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="M361" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A362" s="5"/>
+      <c r="B362" s="6"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="5"/>
+      <c r="E362" s="7"/>
+      <c r="F362" s="7"/>
+      <c r="G362" t="s">
+        <v>61</v>
+      </c>
+      <c r="H362" t="s">
+        <v>62</v>
+      </c>
+      <c r="I362" t="s">
+        <v>17</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="M362" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A363" s="5"/>
+      <c r="B363" s="6"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="5"/>
+      <c r="E363" s="7"/>
+      <c r="F363" s="7"/>
+      <c r="G363" t="s">
+        <v>63</v>
+      </c>
+      <c r="H363" t="s">
+        <v>64</v>
+      </c>
+      <c r="I363" t="s">
+        <v>17</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="M363" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A364" s="5"/>
+      <c r="B364" s="6"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="7"/>
+      <c r="F364" s="7"/>
+      <c r="G364" t="s">
+        <v>65</v>
+      </c>
+      <c r="H364" t="s">
+        <v>20</v>
+      </c>
+      <c r="I364" t="s">
+        <v>17</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="M364" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A365" s="5"/>
+      <c r="B365" s="6"/>
+      <c r="C365" s="6"/>
+      <c r="D365" s="5"/>
+      <c r="E365" s="7"/>
+      <c r="F365" s="7"/>
+      <c r="G365" t="s">
+        <v>66</v>
+      </c>
+      <c r="H365" t="s">
+        <v>67</v>
+      </c>
+      <c r="I365" t="s">
+        <v>17</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="M365" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="240">
+    <mergeCell ref="A356:XFD356"/>
+    <mergeCell ref="A358:XFD358"/>
+    <mergeCell ref="A359:A365"/>
+    <mergeCell ref="B359:B365"/>
+    <mergeCell ref="C359:C365"/>
+    <mergeCell ref="D359:D365"/>
+    <mergeCell ref="E359:E365"/>
+    <mergeCell ref="F359:F365"/>
+    <mergeCell ref="F336:F348"/>
+    <mergeCell ref="A349:A355"/>
+    <mergeCell ref="B349:B355"/>
+    <mergeCell ref="C349:C355"/>
+    <mergeCell ref="D349:D355"/>
+    <mergeCell ref="E349:E355"/>
+    <mergeCell ref="F349:F355"/>
+    <mergeCell ref="A336:A348"/>
+    <mergeCell ref="B336:B348"/>
+    <mergeCell ref="C336:C348"/>
+    <mergeCell ref="D336:D348"/>
+    <mergeCell ref="E336:E348"/>
+    <mergeCell ref="A325:XFD325"/>
+    <mergeCell ref="A327:XFD327"/>
+    <mergeCell ref="A328:A334"/>
+    <mergeCell ref="B328:B334"/>
+    <mergeCell ref="C328:C334"/>
+    <mergeCell ref="D328:D334"/>
+    <mergeCell ref="E328:E334"/>
+    <mergeCell ref="F328:F334"/>
+    <mergeCell ref="F305:F317"/>
+    <mergeCell ref="A318:A324"/>
+    <mergeCell ref="B318:B324"/>
+    <mergeCell ref="C318:C324"/>
+    <mergeCell ref="D318:D324"/>
+    <mergeCell ref="E318:E324"/>
+    <mergeCell ref="F318:F324"/>
+    <mergeCell ref="A305:A317"/>
+    <mergeCell ref="B305:B317"/>
+    <mergeCell ref="C305:C317"/>
+    <mergeCell ref="D305:D317"/>
+    <mergeCell ref="E305:E317"/>
+    <mergeCell ref="A295:XFD295"/>
+    <mergeCell ref="A297:XFD297"/>
+    <mergeCell ref="A298:A304"/>
+    <mergeCell ref="B298:B304"/>
+    <mergeCell ref="C298:C304"/>
+    <mergeCell ref="D298:D304"/>
+    <mergeCell ref="E298:E304"/>
+    <mergeCell ref="F298:F304"/>
+    <mergeCell ref="F275:F287"/>
+    <mergeCell ref="A288:A294"/>
+    <mergeCell ref="B288:B294"/>
+    <mergeCell ref="C288:C294"/>
+    <mergeCell ref="D288:D294"/>
+    <mergeCell ref="E288:E294"/>
+    <mergeCell ref="F288:F294"/>
+    <mergeCell ref="A275:A287"/>
+    <mergeCell ref="B275:B287"/>
+    <mergeCell ref="C275:C287"/>
+    <mergeCell ref="D275:D287"/>
+    <mergeCell ref="E275:E287"/>
+    <mergeCell ref="A265:XFD265"/>
+    <mergeCell ref="A267:XFD267"/>
+    <mergeCell ref="A268:A274"/>
+    <mergeCell ref="B268:B274"/>
+    <mergeCell ref="C268:C274"/>
+    <mergeCell ref="D268:D274"/>
+    <mergeCell ref="E268:E274"/>
+    <mergeCell ref="F268:F274"/>
+    <mergeCell ref="F245:F257"/>
+    <mergeCell ref="A258:A264"/>
+    <mergeCell ref="B258:B264"/>
+    <mergeCell ref="C258:C264"/>
+    <mergeCell ref="D258:D264"/>
+    <mergeCell ref="E258:E264"/>
+    <mergeCell ref="F258:F264"/>
+    <mergeCell ref="A245:A257"/>
+    <mergeCell ref="B245:B257"/>
+    <mergeCell ref="C245:C257"/>
+    <mergeCell ref="D245:D257"/>
+    <mergeCell ref="E245:E257"/>
+    <mergeCell ref="A234:XFD234"/>
+    <mergeCell ref="A236:XFD236"/>
+    <mergeCell ref="A237:A243"/>
+    <mergeCell ref="B237:B243"/>
+    <mergeCell ref="C237:C243"/>
+    <mergeCell ref="D237:D243"/>
+    <mergeCell ref="E237:E243"/>
+    <mergeCell ref="F237:F243"/>
+    <mergeCell ref="F214:F226"/>
+    <mergeCell ref="A227:A233"/>
+    <mergeCell ref="B227:B233"/>
+    <mergeCell ref="C227:C233"/>
+    <mergeCell ref="D227:D233"/>
+    <mergeCell ref="E227:E233"/>
+    <mergeCell ref="F227:F233"/>
+    <mergeCell ref="A214:A226"/>
+    <mergeCell ref="B214:B226"/>
+    <mergeCell ref="C214:C226"/>
+    <mergeCell ref="D214:D226"/>
+    <mergeCell ref="E214:E226"/>
+    <mergeCell ref="A204:XFD204"/>
+    <mergeCell ref="A206:XFD206"/>
+    <mergeCell ref="A207:A213"/>
+    <mergeCell ref="B207:B213"/>
+    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="D207:D213"/>
+    <mergeCell ref="E207:E213"/>
+    <mergeCell ref="F207:F213"/>
+    <mergeCell ref="F184:F196"/>
+    <mergeCell ref="A197:A203"/>
+    <mergeCell ref="B197:B203"/>
+    <mergeCell ref="C197:C203"/>
+    <mergeCell ref="D197:D203"/>
+    <mergeCell ref="E197:E203"/>
+    <mergeCell ref="F197:F203"/>
+    <mergeCell ref="A184:A196"/>
+    <mergeCell ref="B184:B196"/>
+    <mergeCell ref="C184:C196"/>
+    <mergeCell ref="D184:D196"/>
+    <mergeCell ref="E184:E196"/>
+    <mergeCell ref="A174:XFD174"/>
+    <mergeCell ref="A176:XFD176"/>
+    <mergeCell ref="A177:A183"/>
+    <mergeCell ref="B177:B183"/>
+    <mergeCell ref="C177:C183"/>
+    <mergeCell ref="D177:D183"/>
+    <mergeCell ref="E177:E183"/>
+    <mergeCell ref="F177:F183"/>
+    <mergeCell ref="F154:F166"/>
+    <mergeCell ref="A167:A173"/>
+    <mergeCell ref="B167:B173"/>
+    <mergeCell ref="C167:C173"/>
+    <mergeCell ref="D167:D173"/>
+    <mergeCell ref="E167:E173"/>
+    <mergeCell ref="F167:F173"/>
+    <mergeCell ref="A154:A166"/>
+    <mergeCell ref="B154:B166"/>
+    <mergeCell ref="C154:C166"/>
+    <mergeCell ref="D154:D166"/>
+    <mergeCell ref="E154:E166"/>
+    <mergeCell ref="A143:XFD143"/>
+    <mergeCell ref="A145:XFD145"/>
+    <mergeCell ref="A146:A152"/>
+    <mergeCell ref="B146:B152"/>
+    <mergeCell ref="C146:C152"/>
+    <mergeCell ref="D146:D152"/>
+    <mergeCell ref="E146:E152"/>
+    <mergeCell ref="F146:F152"/>
+    <mergeCell ref="F123:F135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="D136:D142"/>
+    <mergeCell ref="E136:E142"/>
+    <mergeCell ref="F136:F142"/>
+    <mergeCell ref="A123:A135"/>
+    <mergeCell ref="B123:B135"/>
+    <mergeCell ref="C123:C135"/>
+    <mergeCell ref="D123:D135"/>
+    <mergeCell ref="E123:E135"/>
+    <mergeCell ref="A113:XFD113"/>
+    <mergeCell ref="A115:XFD115"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="C116:C122"/>
+    <mergeCell ref="D116:D122"/>
+    <mergeCell ref="E116:E122"/>
+    <mergeCell ref="F116:F122"/>
+    <mergeCell ref="F93:F105"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="C106:C112"/>
+    <mergeCell ref="D106:D112"/>
+    <mergeCell ref="E106:E112"/>
+    <mergeCell ref="F106:F112"/>
+    <mergeCell ref="A93:A105"/>
+    <mergeCell ref="B93:B105"/>
+    <mergeCell ref="C93:C105"/>
+    <mergeCell ref="D93:D105"/>
+    <mergeCell ref="E93:E105"/>
+    <mergeCell ref="A83:XFD83"/>
+    <mergeCell ref="A85:XFD85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E86:E92"/>
+    <mergeCell ref="F86:F92"/>
+    <mergeCell ref="F63:F75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B76:B82"/>
+    <mergeCell ref="C76:C82"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="F76:F82"/>
+    <mergeCell ref="A63:A75"/>
+    <mergeCell ref="B63:B75"/>
+    <mergeCell ref="C63:C75"/>
+    <mergeCell ref="D63:D75"/>
+    <mergeCell ref="E63:E75"/>
+    <mergeCell ref="A52:XFD52"/>
+    <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="F32:F44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="E45:E51"/>
+    <mergeCell ref="F45:F51"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="C32:C44"/>
+    <mergeCell ref="D32:D44"/>
+    <mergeCell ref="E32:E44"/>
     <mergeCell ref="A22:XFD22"/>
     <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A25:A31"/>
@@ -1492,12 +9475,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
